--- a/test_data_record.xlsx
+++ b/test_data_record.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14480" windowHeight="14060"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Emily Annotations" sheetId="2" r:id="rId2"/>
+    <sheet name="Julia Annotations" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
-  <si>
-    <t>A Child's Garden of Verses</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="482">
   <si>
     <t>Robert Louis Stevenson</t>
   </si>
@@ -58,16 +65,6 @@
     <t>Frank L. Baum</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>A Little Princess </t>
-    </r>
-  </si>
-  <si>
     <t>Frances Hodgson Burnett</t>
   </si>
   <si>
@@ -80,16 +77,6 @@
     <t>A Modern Cinderella</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Alice in Wonderland</t>
-    </r>
-  </si>
-  <si>
     <t>Lewis Carroll</t>
   </si>
   <si>
@@ -297,9 +284,6 @@
     <t>I’m Such A Big Help!</t>
   </si>
   <si>
-    <t>In Homespun</t>
-  </si>
-  <si>
     <t>jackAndJill.txt</t>
   </si>
   <si>
@@ -348,52 +332,12 @@
     <t>Life and Adventures of Santa Claus </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Lightfoot the Deer </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Little Lord Fauntleroy </t>
-    </r>
-  </si>
-  <si>
     <t>Little Men </t>
   </si>
   <si>
     <t>Little Mr. Thimblefinger and His Queer Country</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Little Saint Elizabeth and Other Stories </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Little Wizard Stories of Oz </t>
-    </r>
-  </si>
-  <si>
     <t>Little Women</t>
   </si>
   <si>
@@ -427,59 +371,9 @@
     <t>Mother Goose in Prose </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Mother West Wind 'Why' Stories </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Mother West Wind "Where" Stories </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Mother West Wind's Children </t>
-    </r>
-  </si>
-  <si>
     <t>Mrs. Overtheway's Remembrances</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Mrs. Peter Rabbit </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>My Robin </t>
-    </r>
-  </si>
-  <si>
     <t>New Chronicles of Rebecca</t>
   </si>
   <si>
@@ -489,45 +383,9 @@
     <t>Nights with Uncle Remus</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Old Granny Fox </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Old Mother West Wind </t>
-    </r>
-  </si>
-  <si>
     <t>Old-fashioned Fairy Tales</t>
   </si>
   <si>
-    <t>Onder Moeders Vleugels</t>
-  </si>
-  <si>
-    <t>Op Eigen Wieken </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Ozma of Oz </t>
-    </r>
-  </si>
-  <si>
     <t>Penelope's English Experiences</t>
   </si>
   <si>
@@ -570,16 +428,6 @@
     <t>Raccoon’s Black Eyes</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Racketty-Packetty House </t>
-    </r>
-  </si>
-  <si>
     <t>Rainbow Valley</t>
   </si>
   <si>
@@ -601,16 +449,6 @@
     <t>Rose O' the River</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Sara Crewe: or, What happened at Miss Minchin's boarding school </t>
-    </r>
-  </si>
-  <si>
     <t>Shawl-Straps; A Second Series of Aunt Jo's Scrap-Bag</t>
   </si>
   <si>
@@ -659,16 +497,6 @@
     <t>The Adventures of Old Mr. Toad </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>The Adventures of Paddy Beaver </t>
-    </r>
-  </si>
-  <si>
     <t>The Arabian Nights: Their Best-known Tales</t>
   </si>
   <si>
@@ -696,16 +524,6 @@
     <t>The Crimson Fairy Book</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>The Dawn of a To-morrow </t>
-    </r>
-  </si>
-  <si>
     <t>The Diary of a Goose Girl</t>
   </si>
   <si>
@@ -730,79 +548,27 @@
     <t>The Grey Fairy Book</t>
   </si>
   <si>
-    <t>theHappyPrince.txt</t>
-  </si>
-  <si>
     <t>The Happy Prince</t>
   </si>
   <si>
     <t>Oscar Wilde</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>The Hunting of the Snark</t>
-    </r>
-  </si>
-  <si>
     <t>The Jungle Book</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>The Land of the Blue Flower </t>
-    </r>
-  </si>
-  <si>
     <t>The Legend of Sleepy Hollow</t>
   </si>
   <si>
     <t>Washington Irving</t>
   </si>
   <si>
-    <t>The Light Princess</t>
-  </si>
-  <si>
     <t>The Light Princess and Other Fairy Stories</t>
   </si>
   <si>
     <t>The Lilac Fairy Book</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>The Little Hunchback Zia </t>
-    </r>
-  </si>
-  <si>
-    <t>The Little Lame Prince</t>
-  </si>
-  <si>
-    <t>Dinah Maria Mulock</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>The Lost Prince </t>
-    </r>
-  </si>
-  <si>
     <t>The Louisa Alcott Reader: a Supplementary Reader for the Fourth Year of School </t>
   </si>
   <si>
@@ -839,15 +605,9 @@
     <t>The Railway Children</t>
   </si>
   <si>
-    <t>The Rainbow and the Rose</t>
-  </si>
-  <si>
     <t>The Red Fairy Book</t>
   </si>
   <si>
-    <t>The Reluctant Dragon</t>
-  </si>
-  <si>
     <t>Kenneth Grahame</t>
   </si>
   <si>
@@ -863,22 +623,9 @@
     <t>The Second Jungle Book</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>The Secret Garden</t>
-    </r>
-  </si>
-  <si>
     <t>The Story Girl</t>
   </si>
   <si>
-    <t>The Story Hour</t>
-  </si>
-  <si>
     <t>The Story of Doctor Dolittle</t>
   </si>
   <si>
@@ -897,9 +644,6 @@
     <t>The Surprising Adventures of the Magical Monarch of Mo and His People </t>
   </si>
   <si>
-    <t>The Talking Beasts</t>
-  </si>
-  <si>
     <t>The Tin Woodman of Oz </t>
   </si>
   <si>
@@ -936,26 +680,6 @@
     <t>The Yellow Fairy Book</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Through the Looking Glass</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Tik-Tok of Oz </t>
-    </r>
-  </si>
-  <si>
     <t>Timothy's Quest</t>
   </si>
   <si>
@@ -977,16 +701,6 @@
     <t>Under the Lilacs </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Understood Betsy</t>
-    </r>
-  </si>
-  <si>
     <t>Dorothy Canfield (Fisher)</t>
   </si>
   <si>
@@ -1008,16 +722,6 @@
     <t>What Katy Did Next</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Whitefoot the Wood Mouse </t>
-    </r>
-  </si>
-  <si>
     <t>whoCanHelpMe.txt</t>
   </si>
   <si>
@@ -1040,16 +744,736 @@
   </si>
   <si>
     <t>Why bluejay hops : a Skokomish legend</t>
+  </si>
+  <si>
+    <t>aChristmasCarol.txt</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>adventuresOfSantaClaus.txt</t>
+  </si>
+  <si>
+    <t>alcottReader.txt</t>
+  </si>
+  <si>
+    <t>aliceInWonderland.txt</t>
+  </si>
+  <si>
+    <t>aLittlePrincess.txt</t>
+  </si>
+  <si>
+    <t>americanFairyTales.txt</t>
+  </si>
+  <si>
+    <t>aModernCinderella.txt</t>
+  </si>
+  <si>
+    <t>anneGreenGables.txt</t>
+  </si>
+  <si>
+    <t>AnneOfAvonlea.txt</t>
+  </si>
+  <si>
+    <t>anneOfTheIsland.txt</t>
+  </si>
+  <si>
+    <t>annesHouseOfDreams.txt</t>
+  </si>
+  <si>
+    <t>anOldFashionedGirl.txt</t>
+  </si>
+  <si>
+    <t>arabianNights.txt</t>
+  </si>
+  <si>
+    <t>backNorthWind.txt</t>
+  </si>
+  <si>
+    <t>bebee.txt</t>
+  </si>
+  <si>
+    <t>billyPossum.txt</t>
+  </si>
+  <si>
+    <t>The Adventures of Unc' Billy Possum</t>
+  </si>
+  <si>
+    <t>bimbi.txt</t>
+  </si>
+  <si>
+    <t>birdsChristmasCarol.txt</t>
+  </si>
+  <si>
+    <t>blackArrow.txt</t>
+  </si>
+  <si>
+    <t>blackBeauty.txt</t>
+  </si>
+  <si>
+    <t>blueFairyBook.txt</t>
+  </si>
+  <si>
+    <t>bookOfDragons.txt</t>
+  </si>
+  <si>
+    <t>Bowser the Hound</t>
+  </si>
+  <si>
+    <t>bowserTheHound.txt</t>
+  </si>
+  <si>
+    <t>brothersOfPity.txt</t>
+  </si>
+  <si>
+    <t>brownFairyBook.txt</t>
+  </si>
+  <si>
+    <t>browniesAndOtherTales.txt</t>
+  </si>
+  <si>
+    <t>childrenOfTheNewForest.txt</t>
+  </si>
+  <si>
+    <t>chroniclesOfAvonlea.txt</t>
+  </si>
+  <si>
+    <t>clover.txt</t>
+  </si>
+  <si>
+    <t>cornelli.txt</t>
+  </si>
+  <si>
+    <t>cricketOnTheHearth.txt</t>
+  </si>
+  <si>
+    <t>crimsonFairyBook.txt</t>
+  </si>
+  <si>
+    <t>dawnOfATomorrow.txt</t>
+  </si>
+  <si>
+    <t>dogOfFlanders.txt</t>
+  </si>
+  <si>
+    <t>dorothyAndTheWizardInOz.txt</t>
+  </si>
+  <si>
+    <t>doWhatYouAreTold.txt</t>
+  </si>
+  <si>
+    <t>drDolittle.txt</t>
+  </si>
+  <si>
+    <t>duckheadNecklace.txt</t>
+  </si>
+  <si>
+    <t>enchantedCastle.txt</t>
+  </si>
+  <si>
+    <t>enchantedIslandOfYew.txt</t>
+  </si>
+  <si>
+    <t>englishExperiences.txt</t>
+  </si>
+  <si>
+    <t>erickAndSally.txt</t>
+  </si>
+  <si>
+    <t>experiencesInScotland.txt</t>
+  </si>
+  <si>
+    <t>fiveChildrenAndIt.txt</t>
+  </si>
+  <si>
+    <t>flagRaising.txt</t>
+  </si>
+  <si>
+    <t>flatIronForAFarthing.txt</t>
+  </si>
+  <si>
+    <t>L. M. Montgomery</t>
+  </si>
+  <si>
+    <t>Further Chronicles of Avonlea</t>
+  </si>
+  <si>
+    <t>glindaOfOz.txt</t>
+  </si>
+  <si>
+    <t>goldenRoad.txt</t>
+  </si>
+  <si>
+    <t>gooseGirl.txt</t>
+  </si>
+  <si>
+    <t>grandfatherFrog.txt</t>
+  </si>
+  <si>
+    <t>greatEmergencyAndOtherTales.txt</t>
+  </si>
+  <si>
+    <t>greenFairyBook.txt</t>
+  </si>
+  <si>
+    <t>greyFairyBook.txt</t>
+  </si>
+  <si>
+    <t>gritlisChildren.txt</t>
+  </si>
+  <si>
+    <t>happyJack.txt</t>
+  </si>
+  <si>
+    <t>happyPrince.txt</t>
+  </si>
+  <si>
+    <t>heidi.txt</t>
+  </si>
+  <si>
+    <t>homespunTales.txt</t>
+  </si>
+  <si>
+    <t>irishExperiences.txt</t>
+  </si>
+  <si>
+    <t>jackanapes.txt</t>
+  </si>
+  <si>
+    <t>janOfTheWindmill.txt</t>
+  </si>
+  <si>
+    <t>jerryMuskrat.txt</t>
+  </si>
+  <si>
+    <t>jimmySkunk.txt</t>
+  </si>
+  <si>
+    <t>joelPepper.txt</t>
+  </si>
+  <si>
+    <t>johnnyChuck.txt</t>
+  </si>
+  <si>
+    <t>josBoys.txt</t>
+  </si>
+  <si>
+    <t>justSoStories.txt</t>
+  </si>
+  <si>
+    <t>kidnapped.txt</t>
+  </si>
+  <si>
+    <t>kidnappedSantaClaus.txt</t>
+  </si>
+  <si>
+    <t>kilmenyOfTheOrchard.txt</t>
+  </si>
+  <si>
+    <t>kim.txt</t>
+  </si>
+  <si>
+    <t>kittysClassDay.txt</t>
+  </si>
+  <si>
+    <t>landOfTheBlueFlower.txt</t>
+  </si>
+  <si>
+    <t>legendOfSleepyHollow.txt</t>
+  </si>
+  <si>
+    <t>lightfootTheDeer.txt</t>
+  </si>
+  <si>
+    <t>lightPrincessAndOtherStories.txt</t>
+  </si>
+  <si>
+    <t>lilacFairyBook.txt</t>
+  </si>
+  <si>
+    <t>littleHunchbackZia.txt</t>
+  </si>
+  <si>
+    <t>littleMen.txt</t>
+  </si>
+  <si>
+    <t>littleMrThimblefinger.txt</t>
+  </si>
+  <si>
+    <t>littleUnionScout.txt</t>
+  </si>
+  <si>
+    <t>littleWizardStoriesOfOz.txt</t>
+  </si>
+  <si>
+    <t>littleWomen.txt</t>
+  </si>
+  <si>
+    <t>littleWoodCarver.txt</t>
+  </si>
+  <si>
+    <t>lookingGlass.txt</t>
+  </si>
+  <si>
+    <t>lordFauntleroy.txt</t>
+  </si>
+  <si>
+    <t>lostPrince.txt</t>
+  </si>
+  <si>
+    <t>The Lost Princess of Oz</t>
+  </si>
+  <si>
+    <t>lostPrincessOfOz.txt</t>
+  </si>
+  <si>
+    <t>magicalMonarchOfMo.txt</t>
+  </si>
+  <si>
+    <t>magicCity.txt</t>
+  </si>
+  <si>
+    <t>The Magic of Oz</t>
+  </si>
+  <si>
+    <t>magicOfOz.txt</t>
+  </si>
+  <si>
+    <t>marjoriesThreeGifts.txt</t>
+  </si>
+  <si>
+    <t>marmLisa.txt</t>
+  </si>
+  <si>
+    <t>The Marvelous Land of Oz</t>
+  </si>
+  <si>
+    <t>marvelousLandOfOz.txt</t>
+  </si>
+  <si>
+    <t>maryQueequeesuesLoveStory.txt</t>
+  </si>
+  <si>
+    <t>marysMeadow.txt</t>
+  </si>
+  <si>
+    <t>mazli.txt</t>
+  </si>
+  <si>
+    <t>melchoirsDream.txt</t>
+  </si>
+  <si>
+    <t>mingoAndOtherSketches.txt</t>
+  </si>
+  <si>
+    <t>motherCareysChickens.txt</t>
+  </si>
+  <si>
+    <t>motherGooseInProse.txt</t>
+  </si>
+  <si>
+    <t>mrMocker.txt</t>
+  </si>
+  <si>
+    <t>mrsPeterRabbit.txt</t>
+  </si>
+  <si>
+    <t>My Name is Pop</t>
+  </si>
+  <si>
+    <t>myNameIsPop.txt</t>
+  </si>
+  <si>
+    <t>myRobin.txt</t>
+  </si>
+  <si>
+    <t>napisJourney.txt</t>
+  </si>
+  <si>
+    <t>newChroniclesOfRebecca.txt</t>
+  </si>
+  <si>
+    <t>newTreasureSeekers.txt</t>
+  </si>
+  <si>
+    <t>nightsWithUncleRemus.txt</t>
+  </si>
+  <si>
+    <t>nurnbergStove.txt</t>
+  </si>
+  <si>
+    <t>oldFashionedFairyTales.txt</t>
+  </si>
+  <si>
+    <t>oldGrannyFox.txt</t>
+  </si>
+  <si>
+    <t>oldMrToad.txt</t>
+  </si>
+  <si>
+    <t>orangeFairyBook.txt</t>
+  </si>
+  <si>
+    <t>overthewaysRememberances.txt</t>
+  </si>
+  <si>
+    <t>ozmaOfOz.txt</t>
+  </si>
+  <si>
+    <t>paddyBeaver.txt</t>
+  </si>
+  <si>
+    <t>patchworkGirlOfOz.txt</t>
+  </si>
+  <si>
+    <t>patLearnsPeppermint.txt</t>
+  </si>
+  <si>
+    <t>peaceEgg.txt</t>
+  </si>
+  <si>
+    <t>peppersAbroad.txt</t>
+  </si>
+  <si>
+    <t>peppersAndTheirFriends.txt</t>
+  </si>
+  <si>
+    <t>peppersGrownUp.txt</t>
+  </si>
+  <si>
+    <t>peppersHowTheyGrew.txt</t>
+  </si>
+  <si>
+    <t>peppersMidway.txt</t>
+  </si>
+  <si>
+    <t>Five Little Peppers Midway</t>
+  </si>
+  <si>
+    <t>peterPan.txt</t>
+  </si>
+  <si>
+    <t>phoenixAndCarpet.txt</t>
+  </si>
+  <si>
+    <t>pinkFairyBook.txt</t>
+  </si>
+  <si>
+    <t>poorMrsQuack.txt</t>
+  </si>
+  <si>
+    <t>The Adventures of Poor Mrs. Quack</t>
+  </si>
+  <si>
+    <t>postscripts.txt</t>
+  </si>
+  <si>
+    <t>pricklyPorky.txt</t>
+  </si>
+  <si>
+    <t>The Adventures of Prickly Porky</t>
+  </si>
+  <si>
+    <t>princePrigio.txt</t>
+  </si>
+  <si>
+    <t>princeRicardo.txt</t>
+  </si>
+  <si>
+    <t>princessAndCurdie.txt</t>
+  </si>
+  <si>
+    <t>princessAndTheGoblin.txt</t>
+  </si>
+  <si>
+    <t>puckOfPooksHill.txt</t>
+  </si>
+  <si>
+    <t>rabAndHisFriends.txt</t>
+  </si>
+  <si>
+    <t>rackettyPacketty.txt</t>
+  </si>
+  <si>
+    <t>railwayChildren.txt</t>
+  </si>
+  <si>
+    <t>rainbowValley.txt</t>
+  </si>
+  <si>
+    <t>reddyFox.txt</t>
+  </si>
+  <si>
+    <t>The Adventures of Reddy Fox</t>
+  </si>
+  <si>
+    <t>redFairyBook.txt</t>
+  </si>
+  <si>
+    <t>ricoAndWiseli.txt</t>
+  </si>
+  <si>
+    <t>rillaOfIngleside.txt</t>
+  </si>
+  <si>
+    <t>rinkitinkInOz.txt</t>
+  </si>
+  <si>
+    <t>roadToOz.txt</t>
+  </si>
+  <si>
+    <t>roseInBloom.txt</t>
+  </si>
+  <si>
+    <t>roseOTheRiver.txt</t>
+  </si>
+  <si>
+    <t>saintElizabeth.txt</t>
+  </si>
+  <si>
+    <t>samiSings.txt</t>
+  </si>
+  <si>
+    <t>What Sami Sings with the Birds</t>
+  </si>
+  <si>
+    <t>scarecrowOfOz.txt</t>
+  </si>
+  <si>
+    <t>secretGarden.txt</t>
+  </si>
+  <si>
+    <t>shawlStraps.txt</t>
+  </si>
+  <si>
+    <t>sixToSixteen.txt</t>
+  </si>
+  <si>
+    <t>skyIsland.txt</t>
+  </si>
+  <si>
+    <t>storyAmulet.txt</t>
+  </si>
+  <si>
+    <t>storyGirl.txt</t>
+  </si>
+  <si>
+    <t>storyOfPatsy.txt</t>
+  </si>
+  <si>
+    <t>sunnybrookFarm.txt</t>
+  </si>
+  <si>
+    <t>talesOfWonder.txt</t>
+  </si>
+  <si>
+    <t>tanglewoodTales.txt</t>
+  </si>
+  <si>
+    <t>theEmeraldCityOfOz.txt</t>
+  </si>
+  <si>
+    <t>theJungleBook.txt</t>
+  </si>
+  <si>
+    <t>theMasterKey.txt</t>
+  </si>
+  <si>
+    <t>The Master Key</t>
+  </si>
+  <si>
+    <t>theMysteriousKey.txt</t>
+  </si>
+  <si>
+    <t>theSeaFairies.txt</t>
+  </si>
+  <si>
+    <t>theSecondJungleBook.txt</t>
+  </si>
+  <si>
+    <t>tikTokOfOz.txt</t>
+  </si>
+  <si>
+    <t>timothysQuest.txt</t>
+  </si>
+  <si>
+    <t>tinWoodmanOfOz.txt</t>
+  </si>
+  <si>
+    <t>treasureIsland.txt</t>
+  </si>
+  <si>
+    <t>treasureSeekers.txt</t>
+  </si>
+  <si>
+    <t>twiceToldTales.txt</t>
+  </si>
+  <si>
+    <t>uncleRemus.txt</t>
+  </si>
+  <si>
+    <t>uncleTitus.txt</t>
+  </si>
+  <si>
+    <t>understoodBetsy.txt</t>
+  </si>
+  <si>
+    <t>underTheLilacs.txt</t>
+  </si>
+  <si>
+    <t>velveteenRabbit.txt</t>
+  </si>
+  <si>
+    <t>veronica.txt</t>
+  </si>
+  <si>
+    <t>violetFairyBook.txt</t>
+  </si>
+  <si>
+    <t>voyagesOfDrDolittle.txt</t>
+  </si>
+  <si>
+    <t>waterBabies.txt</t>
+  </si>
+  <si>
+    <t>weAndTheWorld.txt</t>
+  </si>
+  <si>
+    <t>weAndTheWorldPart2.txt</t>
+  </si>
+  <si>
+    <t>westWindMother.txt</t>
+  </si>
+  <si>
+    <t>westWindsChildren.txt</t>
+  </si>
+  <si>
+    <t>westWindWhere.txt</t>
+  </si>
+  <si>
+    <t>westWindWhy.txt</t>
+  </si>
+  <si>
+    <t>whatKatyDid.txt</t>
+  </si>
+  <si>
+    <t>whatKatyDidAtSchool.txt</t>
+  </si>
+  <si>
+    <t>whatKatyDidNext.txt</t>
+  </si>
+  <si>
+    <t>whitefootWoodMouse.txt</t>
+  </si>
+  <si>
+    <t>whyBluejayHops.txt</t>
+  </si>
+  <si>
+    <t>windInTheWillows.txt</t>
+  </si>
+  <si>
+    <t>woggleBugBook.txt</t>
+  </si>
+  <si>
+    <t>wonderfulWizardOfOz.txt</t>
+  </si>
+  <si>
+    <t>wouldbegoods.txt</t>
+  </si>
+  <si>
+    <t>yellowFairyBook.txt</t>
+  </si>
+  <si>
+    <t>A Little Princess </t>
+  </si>
+  <si>
+    <t>Alice in Wonderland</t>
+  </si>
+  <si>
+    <t>Little Lord Fauntleroy </t>
+  </si>
+  <si>
+    <t>Little Saint Elizabeth and Other Stories </t>
+  </si>
+  <si>
+    <t>Little Wizard Stories of Oz </t>
+  </si>
+  <si>
+    <t>Mother West Wind 'Why' Stories </t>
+  </si>
+  <si>
+    <t>Mother West Wind "Where" Stories </t>
+  </si>
+  <si>
+    <t>Mother West Wind's Children </t>
+  </si>
+  <si>
+    <t>Mrs. Peter Rabbit </t>
+  </si>
+  <si>
+    <t>My Robin </t>
+  </si>
+  <si>
+    <t>Old Granny Fox </t>
+  </si>
+  <si>
+    <t>Old Mother West Wind </t>
+  </si>
+  <si>
+    <t>Ozma of Oz </t>
+  </si>
+  <si>
+    <t>Racketty-Packetty House </t>
+  </si>
+  <si>
+    <t>The Adventures of Paddy Beaver </t>
+  </si>
+  <si>
+    <t>The Dawn of a To-morrow </t>
+  </si>
+  <si>
+    <t>The Land of the Blue Flower </t>
+  </si>
+  <si>
+    <t>The Little Hunchback Zia </t>
+  </si>
+  <si>
+    <t>The Lost Prince </t>
+  </si>
+  <si>
+    <t>The Secret Garden</t>
+  </si>
+  <si>
+    <t>Through the Looking Glass</t>
+  </si>
+  <si>
+    <t>Tik-Tok of Oz </t>
+  </si>
+  <si>
+    <t>Understood Betsy</t>
+  </si>
+  <si>
+    <t>Whitefoot the Wood Mouse </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1057,16 +1481,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -1076,14 +1490,32 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="Helvetica"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
     </font>
     <font>
-      <sz val="14"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color indexed="11"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1118,57 +1550,177 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff24292e"/>
-      <rgbColor rgb="ff6a737d"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF24292E"/>
+      <rgbColor rgb="FF6A737D"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1360,7 +1912,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1369,7 +1921,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1378,7 +1930,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1387,7 +1939,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1396,7 +1948,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1405,7 +1957,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1517,8 +2069,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1526,14 +2078,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1552,7 +2104,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1560,7 +2112,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1588,7 +2140,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1614,7 +2166,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1640,7 +2192,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1666,7 +2218,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1692,7 +2244,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1718,7 +2270,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1744,7 +2296,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1770,7 +2322,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1796,7 +2348,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1809,9 +2361,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1827,7 +2385,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1846,7 +2404,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1872,7 +2430,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1898,7 +2456,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1924,7 +2482,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1950,7 +2508,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1976,7 +2534,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2002,7 +2560,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2028,7 +2586,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2054,7 +2612,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2080,7 +2638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2093,9 +2651,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2108,7 +2672,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2127,7 +2691,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2157,7 +2721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2183,7 +2747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2209,7 +2773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2235,7 +2799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2261,7 +2825,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2287,7 +2851,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2313,7 +2877,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2339,7 +2903,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2365,7 +2929,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2378,2574 +2942,5586 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E227"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV229"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="256" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="4" customWidth="1"/>
+    <col min="5" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s" s="3">
+    <row r="1" spans="1:256" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="7"/>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="7"/>
+      <c r="CC1" s="7"/>
+      <c r="CD1" s="7"/>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="7"/>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="7"/>
+      <c r="CQ1" s="7"/>
+      <c r="CR1" s="7"/>
+      <c r="CS1" s="7"/>
+      <c r="CT1" s="7"/>
+      <c r="CU1" s="7"/>
+      <c r="CV1" s="7"/>
+      <c r="CW1" s="7"/>
+      <c r="CX1" s="7"/>
+      <c r="CY1" s="7"/>
+      <c r="CZ1" s="7"/>
+      <c r="DA1" s="7"/>
+      <c r="DB1" s="7"/>
+      <c r="DC1" s="7"/>
+      <c r="DD1" s="7"/>
+      <c r="DE1" s="7"/>
+      <c r="DF1" s="7"/>
+      <c r="DG1" s="7"/>
+      <c r="DH1" s="7"/>
+      <c r="DI1" s="7"/>
+      <c r="DJ1" s="7"/>
+      <c r="DK1" s="7"/>
+      <c r="DL1" s="7"/>
+      <c r="DM1" s="7"/>
+      <c r="DN1" s="7"/>
+      <c r="DO1" s="7"/>
+      <c r="DP1" s="7"/>
+      <c r="DQ1" s="7"/>
+      <c r="DR1" s="7"/>
+      <c r="DS1" s="7"/>
+      <c r="DT1" s="7"/>
+      <c r="DU1" s="7"/>
+      <c r="DV1" s="7"/>
+      <c r="DW1" s="7"/>
+      <c r="DX1" s="7"/>
+      <c r="DY1" s="7"/>
+      <c r="DZ1" s="7"/>
+      <c r="EA1" s="7"/>
+      <c r="EB1" s="7"/>
+      <c r="EC1" s="7"/>
+      <c r="ED1" s="7"/>
+      <c r="EE1" s="7"/>
+      <c r="EF1" s="7"/>
+      <c r="EG1" s="7"/>
+      <c r="EH1" s="7"/>
+      <c r="EI1" s="7"/>
+      <c r="EJ1" s="7"/>
+      <c r="EK1" s="7"/>
+      <c r="EL1" s="7"/>
+      <c r="EM1" s="7"/>
+      <c r="EN1" s="7"/>
+      <c r="EO1" s="7"/>
+      <c r="EP1" s="7"/>
+      <c r="EQ1" s="7"/>
+      <c r="ER1" s="7"/>
+      <c r="ES1" s="7"/>
+      <c r="ET1" s="7"/>
+      <c r="EU1" s="7"/>
+      <c r="EV1" s="7"/>
+      <c r="EW1" s="7"/>
+      <c r="EX1" s="7"/>
+      <c r="EY1" s="7"/>
+      <c r="EZ1" s="7"/>
+      <c r="FA1" s="7"/>
+      <c r="FB1" s="7"/>
+      <c r="FC1" s="7"/>
+      <c r="FD1" s="7"/>
+      <c r="FE1" s="7"/>
+      <c r="FF1" s="7"/>
+      <c r="FG1" s="7"/>
+      <c r="FH1" s="7"/>
+      <c r="FI1" s="7"/>
+      <c r="FJ1" s="7"/>
+      <c r="FK1" s="7"/>
+      <c r="FL1" s="7"/>
+      <c r="FM1" s="7"/>
+      <c r="FN1" s="7"/>
+      <c r="FO1" s="7"/>
+      <c r="FP1" s="7"/>
+      <c r="FQ1" s="7"/>
+      <c r="FR1" s="7"/>
+      <c r="FS1" s="7"/>
+      <c r="FT1" s="7"/>
+      <c r="FU1" s="7"/>
+      <c r="FV1" s="7"/>
+      <c r="FW1" s="7"/>
+      <c r="FX1" s="7"/>
+      <c r="FY1" s="7"/>
+      <c r="FZ1" s="7"/>
+      <c r="GA1" s="7"/>
+      <c r="GB1" s="7"/>
+      <c r="GC1" s="7"/>
+      <c r="GD1" s="7"/>
+      <c r="GE1" s="7"/>
+      <c r="GF1" s="7"/>
+      <c r="GG1" s="7"/>
+      <c r="GH1" s="7"/>
+      <c r="GI1" s="7"/>
+      <c r="GJ1" s="7"/>
+      <c r="GK1" s="7"/>
+      <c r="GL1" s="7"/>
+      <c r="GM1" s="7"/>
+      <c r="GN1" s="7"/>
+      <c r="GO1" s="7"/>
+      <c r="GP1" s="7"/>
+      <c r="GQ1" s="7"/>
+      <c r="GR1" s="7"/>
+      <c r="GS1" s="7"/>
+      <c r="GT1" s="7"/>
+      <c r="GU1" s="7"/>
+      <c r="GV1" s="7"/>
+      <c r="GW1" s="7"/>
+      <c r="GX1" s="7"/>
+      <c r="GY1" s="7"/>
+      <c r="GZ1" s="7"/>
+      <c r="HA1" s="7"/>
+      <c r="HB1" s="7"/>
+      <c r="HC1" s="7"/>
+      <c r="HD1" s="7"/>
+      <c r="HE1" s="7"/>
+      <c r="HF1" s="7"/>
+      <c r="HG1" s="7"/>
+      <c r="HH1" s="7"/>
+      <c r="HI1" s="7"/>
+      <c r="HJ1" s="7"/>
+      <c r="HK1" s="7"/>
+      <c r="HL1" s="7"/>
+      <c r="HM1" s="7"/>
+      <c r="HN1" s="7"/>
+      <c r="HO1" s="7"/>
+      <c r="HP1" s="7"/>
+      <c r="HQ1" s="7"/>
+      <c r="HR1" s="7"/>
+      <c r="HS1" s="7"/>
+      <c r="HT1" s="7"/>
+      <c r="HU1" s="7"/>
+      <c r="HV1" s="7"/>
+      <c r="HW1" s="7"/>
+      <c r="HX1" s="7"/>
+      <c r="HY1" s="7"/>
+      <c r="HZ1" s="7"/>
+      <c r="IA1" s="7"/>
+      <c r="IB1" s="7"/>
+      <c r="IC1" s="7"/>
+      <c r="ID1" s="7"/>
+      <c r="IE1" s="7"/>
+      <c r="IF1" s="7"/>
+      <c r="IG1" s="7"/>
+      <c r="IH1" s="7"/>
+      <c r="II1" s="7"/>
+      <c r="IJ1" s="7"/>
+      <c r="IK1" s="7"/>
+      <c r="IL1" s="7"/>
+      <c r="IM1" s="7"/>
+      <c r="IN1" s="7"/>
+      <c r="IO1" s="7"/>
+      <c r="IP1" s="7"/>
+      <c r="IQ1" s="7"/>
+      <c r="IR1" s="7"/>
+      <c r="IS1" s="7"/>
+      <c r="IT1" s="7"/>
+      <c r="IU1" s="7"/>
+      <c r="IV1" s="7"/>
+    </row>
+    <row r="2" spans="1:256" ht="19" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="19" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:256" ht="19" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" ht="19" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:256" ht="19" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" ht="19" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s" s="3">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:256" ht="19" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" ht="19" customHeight="1">
-      <c r="A5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:256" ht="19" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" ht="19" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>7</v>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="22" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" t="s" s="3">
+    <row r="7" spans="1:256" ht="22" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>14</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="19" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>16</v>
+    <row r="8" spans="1:256" ht="19" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="19" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>18</v>
+    <row r="9" spans="1:256" ht="19" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="22" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5"/>
+    <row r="10" spans="1:256" ht="22" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" ht="19" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>21</v>
+    <row r="11" spans="1:256" ht="19" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" ht="19" customHeight="1">
-      <c r="A12" t="s" s="3">
+    <row r="12" spans="1:256" ht="19" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:256" ht="22" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:256" ht="22" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s" s="3">
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:256" ht="19" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" ht="22" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" t="s" s="3">
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" ht="22" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" t="s" s="3">
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:256" ht="19" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" ht="19" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s" s="3">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="19" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" ht="19" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" ht="19" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s" s="3">
-        <v>28</v>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" ht="19" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="3">
+    <row r="18" spans="1:5" ht="19" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" ht="19" customHeight="1">
-      <c r="A19" t="s" s="3">
+    <row r="19" spans="1:5" ht="19" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="19" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" ht="19" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s" s="3">
-        <v>35</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" ht="19" customHeight="1">
-      <c r="A21" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s" s="3">
+    <row r="21" spans="1:5" ht="19" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D21" t="s" s="3">
-        <v>11</v>
-      </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" ht="19" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s" s="3">
-        <v>5</v>
+    <row r="22" spans="1:5" ht="19" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" ht="19" customHeight="1">
-      <c r="A23" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s" s="3">
-        <v>40</v>
+    <row r="23" spans="1:5" ht="19" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" t="s" s="3">
-        <v>24</v>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" ht="19" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s" s="3">
-        <v>5</v>
+    <row r="24" spans="1:5" ht="19" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" ht="19" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s" s="3">
-        <v>43</v>
+    <row r="25" spans="1:5" ht="19" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" ht="19" customHeight="1">
-      <c r="A26" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s" s="3">
-        <v>45</v>
+    <row r="26" spans="1:5" ht="19" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" t="s" s="3">
-        <v>24</v>
+      <c r="D26" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" ht="19" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" t="s" s="3">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D27" s="2"/>
+    <row r="27" spans="1:5" ht="19" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" ht="19" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s" s="3">
-        <v>48</v>
+    <row r="28" spans="1:5" ht="19" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" ht="19" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s" s="3">
-        <v>28</v>
+    <row r="29" spans="1:5" ht="19" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" ht="19" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="C30" t="s" s="3">
-        <v>51</v>
+    <row r="30" spans="1:5" ht="19" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" ht="19" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="C31" t="s" s="3">
-        <v>53</v>
+    <row r="31" spans="1:5" ht="19" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" ht="19" customHeight="1">
-      <c r="A32" t="s" s="3">
+    <row r="32" spans="1:5" ht="19" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="19" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="19" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B32" t="s" s="3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="19" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" ht="19" customHeight="1">
-      <c r="A33" t="s" s="3">
+      <c r="B35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B33" t="s" s="3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="22" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" ht="19" customHeight="1">
-      <c r="A34" t="s" s="3">
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="19" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B34" t="s" s="3">
+      <c r="B37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" ht="22" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" t="s" s="3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="19" customHeight="1">
+      <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C35" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" ht="19" customHeight="1">
-      <c r="A36" t="s" s="3">
+      <c r="B38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="19" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" ht="19" customHeight="1">
-      <c r="A37" t="s" s="3">
+      <c r="C39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="19" customHeight="1">
+      <c r="A40" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B37" t="s" s="3">
+      <c r="B40" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C37" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" ht="19" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" t="s" s="3">
+      <c r="C40" s="2"/>
+      <c r="D40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="19" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C38" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" ht="19" customHeight="1">
-      <c r="A39" t="s" s="3">
+      <c r="C41" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B39" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" ht="19" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" t="s" s="3">
-        <v>68</v>
-      </c>
-      <c r="C40" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" ht="19" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="C41" t="s" s="3">
-        <v>71</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" ht="19" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="C42" t="s" s="3">
-        <v>71</v>
+    <row r="42" spans="1:5" ht="19" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" ht="19" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="C43" t="s" s="3">
-        <v>71</v>
+    <row r="43" spans="1:5" ht="19" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" ht="19" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="C44" t="s" s="3">
-        <v>71</v>
+    <row r="44" spans="1:5" ht="19" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" ht="19" customHeight="1">
-      <c r="A45" t="s" s="3">
+    <row r="45" spans="1:5" ht="19" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="19" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="19" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="19" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="C48" s="2"/>
+      <c r="D48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="22" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C45" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" ht="19" customHeight="1">
-      <c r="A46" t="s" s="3">
+      <c r="C49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="19" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B46" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" ht="22" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" t="s" s="3">
-        <v>79</v>
-      </c>
-      <c r="C47" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" ht="19" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="C48" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" ht="19" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" t="s" s="3">
-        <v>81</v>
-      </c>
-      <c r="C49" t="s" s="3">
-        <v>82</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" ht="19" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="C50" t="s" s="3">
-        <v>53</v>
+      <c r="C50" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" ht="19" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="C51" t="s" s="3">
-        <v>85</v>
+    <row r="51" spans="1:5" ht="19" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" ht="19" customHeight="1">
-      <c r="A52" t="s" s="3">
+    <row r="52" spans="1:5" ht="19" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="19" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="19" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="19" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B52" t="s" s="3">
+      <c r="C55" s="2"/>
+      <c r="D55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="19" customHeight="1">
+      <c r="A56" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" ht="19" customHeight="1">
-      <c r="A53" t="s" s="3">
+      <c r="B56" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B53" t="s" s="3">
+      <c r="C56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="19" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" ht="19" customHeight="1">
-      <c r="A54" s="2"/>
-      <c r="B54" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="C54" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" ht="19" customHeight="1">
-      <c r="A55" t="s" s="3">
-        <v>91</v>
-      </c>
-      <c r="B55" t="s" s="3">
-        <v>92</v>
-      </c>
-      <c r="C55" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" ht="19" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="C56" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" ht="19" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="B57" t="s" s="3">
-        <v>94</v>
-      </c>
-      <c r="C57" t="s" s="3">
-        <v>7</v>
+      <c r="C57" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" ht="19" customHeight="1">
-      <c r="A58" t="s" s="3">
-        <v>95</v>
-      </c>
-      <c r="B58" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="3">
-        <v>24</v>
-      </c>
+    <row r="58" spans="1:5" ht="19" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" ht="19" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C59" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D59" s="2"/>
+    <row r="59" spans="1:5" ht="19" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" ht="19" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="C60" t="s" s="3">
-        <v>99</v>
+    <row r="60" spans="1:5" ht="19" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" ht="19" customHeight="1">
-      <c r="A61" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="B61" t="s" s="3">
-        <v>101</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="3">
-        <v>24</v>
-      </c>
+    <row r="61" spans="1:5" ht="19" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" ht="19" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="B62" t="s" s="3">
-        <v>102</v>
-      </c>
-      <c r="C62" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2"/>
+    <row r="62" spans="1:5" ht="19" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" ht="19" customHeight="1">
-      <c r="A63" s="2"/>
-      <c r="B63" t="s" s="3">
-        <v>103</v>
-      </c>
-      <c r="C63" t="s" s="3">
-        <v>28</v>
+    <row r="63" spans="1:5" ht="19" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" ht="19" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="B64" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="C64" t="s" s="3">
+    <row r="64" spans="1:5" ht="19" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>99</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" ht="19" customHeight="1">
-      <c r="A65" s="2"/>
-      <c r="B65" t="s" s="3">
-        <v>105</v>
-      </c>
-      <c r="C65" t="s" s="3">
-        <v>10</v>
+    <row r="65" spans="1:5" ht="19" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" ht="19" customHeight="1">
-      <c r="A66" s="2"/>
-      <c r="B66" t="s" s="3">
-        <v>106</v>
-      </c>
-      <c r="C66" t="s" s="3">
-        <v>14</v>
+    <row r="66" spans="1:5" ht="19" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" ht="19" customHeight="1">
-      <c r="A67" s="2"/>
-      <c r="B67" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="C67" t="s" s="3">
-        <v>82</v>
+    <row r="67" spans="1:5" ht="19" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" ht="19" customHeight="1">
-      <c r="A68" s="2"/>
-      <c r="B68" t="s" s="3">
-        <v>108</v>
-      </c>
-      <c r="C68" t="s" s="3">
-        <v>16</v>
+    <row r="68" spans="1:5" ht="19" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" ht="19" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="B69" t="s" s="3">
-        <v>109</v>
-      </c>
-      <c r="C69" t="s" s="3">
-        <v>10</v>
+    <row r="69" spans="1:5" ht="19" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" ht="19" customHeight="1">
-      <c r="A70" s="2"/>
-      <c r="B70" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="C70" t="s" s="3">
-        <v>18</v>
+    <row r="70" spans="1:5" ht="19" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" ht="19" customHeight="1">
-      <c r="A71" s="2"/>
-      <c r="B71" t="s" s="3">
-        <v>111</v>
-      </c>
-      <c r="C71" t="s" s="3">
-        <v>16</v>
+    <row r="71" spans="1:5" ht="19" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" ht="19" customHeight="1">
-      <c r="A72" s="2"/>
-      <c r="B72" t="s" s="3">
-        <v>112</v>
-      </c>
-      <c r="C72" t="s" s="3">
-        <v>14</v>
+    <row r="72" spans="1:5" ht="19" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" ht="19" customHeight="1">
-      <c r="A73" s="2"/>
-      <c r="B73" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="C73" t="s" s="3">
-        <v>10</v>
+    <row r="73" spans="1:5" ht="19" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" ht="19" customHeight="1">
-      <c r="A74" t="s" s="3">
-        <v>114</v>
-      </c>
-      <c r="B74" t="s" s="3">
-        <v>115</v>
+    <row r="74" spans="1:5" ht="19" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" t="s" s="3">
-        <v>24</v>
+      <c r="D74" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" ht="19" customHeight="1">
-      <c r="A75" s="2"/>
-      <c r="B75" t="s" s="3">
-        <v>116</v>
-      </c>
-      <c r="C75" t="s" s="3">
-        <v>53</v>
+    <row r="75" spans="1:5" ht="19" customHeight="1">
+      <c r="A75" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" ht="22" customHeight="1">
-      <c r="A76" s="4"/>
-      <c r="B76" t="s" s="3">
-        <v>117</v>
-      </c>
-      <c r="C76" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D76" s="5"/>
+    <row r="76" spans="1:5" ht="19" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="9"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" ht="19" customHeight="1">
-      <c r="A77" s="2"/>
-      <c r="B77" t="s" s="3">
-        <v>118</v>
-      </c>
-      <c r="C77" t="s" s="3">
-        <v>85</v>
+    <row r="77" spans="1:5" ht="22" customHeight="1">
+      <c r="A77" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" ht="19" customHeight="1">
-      <c r="A78" s="2"/>
-      <c r="B78" t="s" s="3">
-        <v>119</v>
-      </c>
-      <c r="C78" t="s" s="3">
-        <v>7</v>
+    <row r="78" spans="1:5" ht="19" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" ht="19" customHeight="1">
-      <c r="A79" s="2"/>
-      <c r="B79" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="C79" t="s" s="3">
-        <v>7</v>
+    <row r="79" spans="1:5" ht="19" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" ht="19" customHeight="1">
-      <c r="A80" s="2"/>
-      <c r="B80" t="s" s="3">
-        <v>121</v>
-      </c>
-      <c r="C80" t="s" s="3">
-        <v>18</v>
+    <row r="80" spans="1:5" ht="19" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" ht="19" customHeight="1">
-      <c r="A81" s="2"/>
-      <c r="B81" t="s" s="3">
-        <v>122</v>
-      </c>
-      <c r="C81" t="s" s="3">
-        <v>85</v>
+    <row r="81" spans="1:5" ht="19" customHeight="1">
+      <c r="A81" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" ht="19" customHeight="1">
-      <c r="A82" s="2"/>
-      <c r="B82" t="s" s="3">
-        <v>123</v>
-      </c>
-      <c r="C82" t="s" s="3">
-        <v>14</v>
+    <row r="82" spans="1:5" ht="19" customHeight="1">
+      <c r="A82" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" ht="19" customHeight="1">
-      <c r="A83" s="2"/>
-      <c r="B83" t="s" s="3">
-        <v>124</v>
-      </c>
-      <c r="C83" t="s" s="3">
-        <v>82</v>
+    <row r="83" spans="1:5" ht="19" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" ht="19" customHeight="1">
-      <c r="A84" s="2"/>
-      <c r="B84" t="s" s="3">
-        <v>125</v>
-      </c>
-      <c r="C84" t="s" s="3">
-        <v>82</v>
+    <row r="84" spans="1:5" ht="19" customHeight="1">
+      <c r="A84" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" ht="19" customHeight="1">
-      <c r="A85" s="2"/>
-      <c r="B85" t="s" s="3">
-        <v>126</v>
-      </c>
-      <c r="C85" t="s" s="3">
-        <v>82</v>
+    <row r="85" spans="1:5" ht="19" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" ht="19" customHeight="1">
-      <c r="A86" s="2"/>
-      <c r="B86" t="s" s="3">
-        <v>127</v>
-      </c>
-      <c r="C86" t="s" s="3">
-        <v>7</v>
+    <row r="86" spans="1:5" ht="19" customHeight="1">
+      <c r="A86" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" ht="19" customHeight="1">
-      <c r="A87" s="2"/>
-      <c r="B87" t="s" s="3">
-        <v>128</v>
-      </c>
-      <c r="C87" t="s" s="3">
-        <v>82</v>
+    <row r="87" spans="1:5" ht="19" customHeight="1">
+      <c r="A87" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" ht="19" customHeight="1">
-      <c r="A88" s="2"/>
-      <c r="B88" t="s" s="3">
-        <v>129</v>
-      </c>
-      <c r="C88" t="s" s="3">
-        <v>16</v>
+    <row r="88" spans="1:5" ht="19" customHeight="1">
+      <c r="A88" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" ht="19" customHeight="1">
-      <c r="A89" s="2"/>
-      <c r="B89" t="s" s="3">
-        <v>130</v>
-      </c>
-      <c r="C89" t="s" s="3">
-        <v>85</v>
-      </c>
+    <row r="89" spans="1:5" ht="19" customHeight="1">
+      <c r="A89" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C89" s="3"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" ht="19" customHeight="1">
-      <c r="A90" s="2"/>
-      <c r="B90" t="s" s="3">
-        <v>131</v>
-      </c>
-      <c r="C90" t="s" s="3">
-        <v>69</v>
+    <row r="90" spans="1:5" ht="19" customHeight="1">
+      <c r="A90" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" ht="19" customHeight="1">
-      <c r="A91" s="2"/>
-      <c r="B91" t="s" s="3">
-        <v>132</v>
-      </c>
-      <c r="C91" t="s" s="3">
-        <v>18</v>
+    <row r="91" spans="1:5" ht="19" customHeight="1">
+      <c r="A91" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" ht="19" customHeight="1">
-      <c r="A92" s="2"/>
-      <c r="B92" t="s" s="3">
-        <v>133</v>
-      </c>
-      <c r="C92" t="s" s="3">
-        <v>82</v>
+    <row r="92" spans="1:5" ht="19" customHeight="1">
+      <c r="A92" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" ht="19" customHeight="1">
-      <c r="A93" s="2"/>
-      <c r="B93" t="s" s="3">
-        <v>134</v>
-      </c>
-      <c r="C93" t="s" s="3">
-        <v>82</v>
+    <row r="93" spans="1:5" ht="19" customHeight="1">
+      <c r="A93" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" ht="19" customHeight="1">
-      <c r="A94" s="2"/>
-      <c r="B94" t="s" s="3">
-        <v>135</v>
-      </c>
-      <c r="C94" t="s" s="3">
-        <v>7</v>
+    <row r="94" spans="1:5" ht="19" customHeight="1">
+      <c r="A94" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" ht="22" customHeight="1">
-      <c r="A95" s="4"/>
-      <c r="B95" t="s" s="3">
-        <v>136</v>
-      </c>
-      <c r="C95" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D95" s="5"/>
+    <row r="95" spans="1:5" ht="19" customHeight="1">
+      <c r="A95" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" ht="22" customHeight="1">
-      <c r="A96" s="4"/>
-      <c r="B96" t="s" s="3">
-        <v>137</v>
-      </c>
-      <c r="C96" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D96" s="5"/>
+    <row r="96" spans="1:5" ht="22" customHeight="1">
+      <c r="A96" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" ht="19" customHeight="1">
-      <c r="A97" s="2"/>
-      <c r="B97" t="s" s="3">
-        <v>138</v>
-      </c>
-      <c r="C97" t="s" s="3">
-        <v>14</v>
+    <row r="97" spans="1:5" ht="19" customHeight="1">
+      <c r="A97" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" ht="19" customHeight="1">
-      <c r="A98" s="2"/>
-      <c r="B98" t="s" s="3">
-        <v>139</v>
-      </c>
-      <c r="C98" t="s" s="3">
-        <v>85</v>
+    <row r="98" spans="1:5" ht="19" customHeight="1">
+      <c r="A98" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" ht="19" customHeight="1">
-      <c r="A99" s="2"/>
-      <c r="B99" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="C99" t="s" s="3">
-        <v>85</v>
+    <row r="99" spans="1:5" ht="19" customHeight="1">
+      <c r="A99" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" ht="19" customHeight="1">
-      <c r="A100" s="2"/>
-      <c r="B100" t="s" s="3">
-        <v>141</v>
-      </c>
-      <c r="C100" t="s" s="3">
-        <v>85</v>
+    <row r="100" spans="1:5" ht="19" customHeight="1">
+      <c r="A100" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" ht="19" customHeight="1">
-      <c r="A101" s="2"/>
-      <c r="B101" t="s" s="3">
-        <v>142</v>
-      </c>
-      <c r="C101" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="D101" s="2"/>
+    <row r="101" spans="1:5" ht="19" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D101" s="9"/>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" ht="22" customHeight="1">
-      <c r="A102" s="4"/>
-      <c r="B102" t="s" s="3">
-        <v>143</v>
-      </c>
-      <c r="C102" t="s" s="3">
-        <v>144</v>
-      </c>
-      <c r="D102" s="5"/>
+    <row r="102" spans="1:5" ht="22" customHeight="1">
+      <c r="A102" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D102" s="2"/>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" ht="19" customHeight="1">
-      <c r="A103" s="2"/>
-      <c r="B103" t="s" s="3">
-        <v>145</v>
-      </c>
-      <c r="C103" t="s" s="3">
-        <v>146</v>
+    <row r="103" spans="1:5" ht="19" customHeight="1">
+      <c r="A103" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" ht="19" customHeight="1">
-      <c r="A104" s="2"/>
-      <c r="B104" t="s" s="3">
-        <v>147</v>
-      </c>
-      <c r="C104" t="s" s="3">
-        <v>146</v>
+    <row r="104" spans="1:5" ht="19" customHeight="1">
+      <c r="A104" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" ht="19" customHeight="1">
-      <c r="A105" s="2"/>
-      <c r="B105" t="s" s="3">
-        <v>148</v>
-      </c>
-      <c r="C105" t="s" s="3">
-        <v>99</v>
+    <row r="105" spans="1:5" ht="19" customHeight="1">
+      <c r="A105" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" ht="19" customHeight="1">
-      <c r="A106" s="2"/>
-      <c r="B106" t="s" s="3">
-        <v>149</v>
-      </c>
-      <c r="C106" t="s" s="3">
-        <v>150</v>
-      </c>
-      <c r="D106" s="2"/>
+    <row r="106" spans="1:5" ht="19" customHeight="1">
+      <c r="A106" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" ht="19" customHeight="1">
-      <c r="A107" t="s" s="3">
-        <v>151</v>
-      </c>
-      <c r="B107" t="s" s="3">
-        <v>152</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="3">
-        <v>24</v>
-      </c>
+    <row r="107" spans="1:5" ht="19" customHeight="1">
+      <c r="A107" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="2"/>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" ht="19" customHeight="1">
-      <c r="A108" s="2"/>
-      <c r="B108" t="s" s="3">
-        <v>153</v>
-      </c>
-      <c r="C108" t="s" s="3">
-        <v>16</v>
+    <row r="108" spans="1:5" ht="19" customHeight="1">
+      <c r="A108" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" ht="19" customHeight="1">
-      <c r="A109" s="2"/>
-      <c r="B109" t="s" s="3">
-        <v>154</v>
-      </c>
-      <c r="C109" t="s" s="3">
-        <v>28</v>
+    <row r="109" spans="1:5" ht="19" customHeight="1">
+      <c r="A109" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" ht="19" customHeight="1">
-      <c r="A110" s="2"/>
-      <c r="B110" t="s" s="3">
-        <v>155</v>
-      </c>
-      <c r="C110" t="s" s="3">
-        <v>85</v>
+    <row r="110" spans="1:5" ht="19" customHeight="1">
+      <c r="A110" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" ht="19" customHeight="1">
-      <c r="A111" s="2"/>
-      <c r="B111" t="s" s="3">
-        <v>156</v>
-      </c>
-      <c r="C111" t="s" s="3">
-        <v>53</v>
+    <row r="111" spans="1:5" ht="19" customHeight="1">
+      <c r="A111" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" ht="19" customHeight="1">
-      <c r="A112" s="2"/>
-      <c r="B112" t="s" s="3">
-        <v>157</v>
-      </c>
-      <c r="C112" t="s" s="3">
-        <v>28</v>
+    <row r="112" spans="1:5" ht="19" customHeight="1">
+      <c r="A112" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" ht="19" customHeight="1">
-      <c r="A113" s="2"/>
-      <c r="B113" t="s" s="3">
-        <v>158</v>
-      </c>
-      <c r="C113" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D113" s="2"/>
+    <row r="113" spans="1:5" ht="19" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="9"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" ht="22" customHeight="1">
-      <c r="A114" s="4"/>
-      <c r="B114" t="s" s="3">
-        <v>159</v>
-      </c>
-      <c r="C114" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D114" s="5"/>
+    <row r="114" spans="1:5" ht="22" customHeight="1">
+      <c r="A114" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D114" s="2"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" ht="19" customHeight="1">
-      <c r="A115" s="2"/>
-      <c r="B115" t="s" s="3">
-        <v>160</v>
-      </c>
-      <c r="C115" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="D115" s="2"/>
+    <row r="115" spans="1:5" ht="19" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="9"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" ht="19" customHeight="1">
-      <c r="A116" s="2"/>
-      <c r="B116" t="s" s="3">
-        <v>161</v>
-      </c>
-      <c r="C116" t="s" s="3">
-        <v>16</v>
+    <row r="116" spans="1:5" ht="22" customHeight="1">
+      <c r="A116" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" ht="22" customHeight="1">
-      <c r="A117" s="4"/>
-      <c r="B117" t="s" s="3">
-        <v>162</v>
-      </c>
-      <c r="C117" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D117" s="5"/>
+    <row r="117" spans="1:5" ht="19" customHeight="1">
+      <c r="A117" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" ht="19" customHeight="1">
-      <c r="A118" s="2"/>
-      <c r="B118" t="s" s="3">
-        <v>163</v>
-      </c>
-      <c r="C118" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D118" s="2"/>
+    <row r="118" spans="1:5" ht="19" customHeight="1">
+      <c r="A118" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" ht="19" customHeight="1">
-      <c r="A119" s="2"/>
-      <c r="B119" t="s" s="3">
-        <v>164</v>
-      </c>
-      <c r="C119" t="s" s="3">
-        <v>14</v>
+    <row r="119" spans="1:5" ht="19" customHeight="1">
+      <c r="A119" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" ht="19" customHeight="1">
-      <c r="A120" t="s" s="3">
-        <v>165</v>
-      </c>
-      <c r="B120" t="s" s="3">
-        <v>166</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="3">
-        <v>24</v>
-      </c>
+    <row r="120" spans="1:5" ht="19" customHeight="1">
+      <c r="A120" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D120" s="2"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" ht="19" customHeight="1">
-      <c r="A121" s="2"/>
-      <c r="B121" t="s" s="3">
-        <v>167</v>
-      </c>
-      <c r="C121" t="s" s="3">
-        <v>85</v>
+    <row r="121" spans="1:5" ht="19" customHeight="1">
+      <c r="A121" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" ht="19" customHeight="1">
-      <c r="A122" s="2"/>
-      <c r="B122" t="s" s="3">
-        <v>168</v>
-      </c>
-      <c r="C122" t="s" s="3">
-        <v>169</v>
+    <row r="122" spans="1:5" ht="19" customHeight="1">
+      <c r="A122" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" ht="19" customHeight="1">
-      <c r="A123" s="2"/>
-      <c r="B123" t="s" s="3">
-        <v>170</v>
-      </c>
-      <c r="C123" t="s" s="3">
-        <v>82</v>
+    <row r="123" spans="1:5" ht="19" customHeight="1">
+      <c r="A123" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" ht="19" customHeight="1">
-      <c r="A124" s="2"/>
-      <c r="B124" t="s" s="3">
-        <v>171</v>
-      </c>
-      <c r="C124" t="s" s="3">
-        <v>82</v>
+    <row r="124" spans="1:5" ht="19" customHeight="1">
+      <c r="A124" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" ht="19" customHeight="1">
-      <c r="A125" s="2"/>
-      <c r="B125" t="s" s="3">
-        <v>172</v>
-      </c>
-      <c r="C125" t="s" s="3">
-        <v>82</v>
+    <row r="125" spans="1:5" ht="19" customHeight="1">
+      <c r="A125" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" ht="19" customHeight="1">
-      <c r="A126" s="2"/>
-      <c r="B126" t="s" s="3">
-        <v>173</v>
-      </c>
-      <c r="C126" t="s" s="3">
-        <v>71</v>
+    <row r="126" spans="1:5" ht="19" customHeight="1">
+      <c r="A126" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" ht="19" customHeight="1">
-      <c r="A127" s="2"/>
-      <c r="B127" t="s" s="3">
-        <v>174</v>
-      </c>
-      <c r="C127" t="s" s="3">
-        <v>82</v>
+    <row r="127" spans="1:5" ht="19" customHeight="1">
+      <c r="A127" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" ht="19" customHeight="1">
-      <c r="A128" s="2"/>
-      <c r="B128" t="s" s="3">
-        <v>175</v>
-      </c>
-      <c r="C128" t="s" s="3">
-        <v>82</v>
+    <row r="128" spans="1:5" ht="19" customHeight="1">
+      <c r="A128" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" ht="19" customHeight="1">
-      <c r="A129" s="2"/>
-      <c r="B129" t="s" s="3">
-        <v>176</v>
-      </c>
-      <c r="C129" t="s" s="3">
-        <v>82</v>
+    <row r="129" spans="1:5" ht="19" customHeight="1">
+      <c r="A129" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" ht="19" customHeight="1">
-      <c r="A130" s="2"/>
-      <c r="B130" t="s" s="3">
-        <v>177</v>
-      </c>
-      <c r="C130" t="s" s="3">
-        <v>82</v>
+    <row r="130" spans="1:5" ht="19" customHeight="1">
+      <c r="A130" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" ht="19" customHeight="1">
-      <c r="A131" s="2"/>
-      <c r="B131" t="s" s="3">
-        <v>178</v>
-      </c>
-      <c r="C131" t="s" s="3">
+    <row r="131" spans="1:5" ht="19" customHeight="1">
+      <c r="A131" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" ht="19" customHeight="1">
+      <c r="A132" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" ht="19" customHeight="1">
+      <c r="A133" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" ht="19" customHeight="1">
+      <c r="A134" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" ht="19" customHeight="1">
-      <c r="A132" s="2"/>
-      <c r="B132" t="s" s="3">
-        <v>179</v>
-      </c>
-      <c r="C132" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" ht="19" customHeight="1">
-      <c r="A133" s="2"/>
-      <c r="B133" t="s" s="3">
-        <v>180</v>
-      </c>
-      <c r="C133" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-    </row>
-    <row r="134" ht="19" customHeight="1">
-      <c r="A134" s="2"/>
-      <c r="B134" t="s" s="3">
-        <v>181</v>
-      </c>
-      <c r="C134" t="s" s="3">
-        <v>1</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" ht="19" customHeight="1">
-      <c r="A135" s="2"/>
-      <c r="B135" t="s" s="3">
-        <v>182</v>
-      </c>
-      <c r="C135" t="s" s="3">
-        <v>146</v>
+    <row r="135" spans="1:5" ht="19" customHeight="1">
+      <c r="A135" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" ht="19" customHeight="1">
-      <c r="A136" s="2"/>
-      <c r="B136" t="s" s="3">
-        <v>183</v>
-      </c>
-      <c r="C136" t="s" s="3">
-        <v>69</v>
+    <row r="136" spans="1:5" ht="19" customHeight="1">
+      <c r="A136" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" ht="19" customHeight="1">
-      <c r="A137" s="2"/>
-      <c r="B137" t="s" s="3">
-        <v>184</v>
-      </c>
-      <c r="C137" t="s" s="3">
-        <v>146</v>
+    <row r="137" spans="1:5" ht="19" customHeight="1">
+      <c r="A137" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" ht="19" customHeight="1">
-      <c r="A138" s="2"/>
-      <c r="B138" t="s" s="3">
-        <v>185</v>
-      </c>
-      <c r="C138" t="s" s="3">
-        <v>7</v>
+    <row r="138" spans="1:5" ht="19" customHeight="1">
+      <c r="A138" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" ht="19" customHeight="1">
-      <c r="A139" s="2"/>
-      <c r="B139" t="s" s="3">
-        <v>186</v>
-      </c>
-      <c r="C139" t="s" s="3">
-        <v>3</v>
+    <row r="139" spans="1:5" ht="19" customHeight="1">
+      <c r="A139" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" ht="19" customHeight="1">
-      <c r="A140" s="2"/>
-      <c r="B140" t="s" s="3">
-        <v>187</v>
-      </c>
-      <c r="C140" t="s" s="3">
-        <v>146</v>
+    <row r="140" spans="1:5" ht="19" customHeight="1">
+      <c r="A140" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" ht="19" customHeight="1">
-      <c r="A141" s="2"/>
-      <c r="B141" t="s" s="3">
-        <v>188</v>
-      </c>
-      <c r="C141" t="s" s="3">
-        <v>16</v>
+    <row r="141" spans="1:5" ht="19" customHeight="1">
+      <c r="A141" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" ht="19" customHeight="1">
-      <c r="A142" s="2"/>
-      <c r="B142" t="s" s="3">
-        <v>189</v>
-      </c>
-      <c r="C142" t="s" s="3">
-        <v>85</v>
+    <row r="142" spans="1:5" ht="19" customHeight="1">
+      <c r="A142" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" ht="22" customHeight="1">
-      <c r="A143" s="4"/>
-      <c r="B143" t="s" s="3">
-        <v>190</v>
-      </c>
-      <c r="C143" t="s" s="3">
+    <row r="143" spans="1:5" ht="19" customHeight="1">
+      <c r="A143" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D143" s="5"/>
+      <c r="D143" s="2"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" ht="19" customHeight="1">
-      <c r="A144" s="2"/>
-      <c r="B144" t="s" s="3">
-        <v>191</v>
-      </c>
-      <c r="C144" t="s" s="3">
-        <v>69</v>
+    <row r="144" spans="1:5" ht="19" customHeight="1">
+      <c r="A144" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" ht="22" customHeight="1">
-      <c r="A145" s="4"/>
-      <c r="B145" t="s" s="3">
-        <v>192</v>
-      </c>
-      <c r="C145" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D145" s="5"/>
+    <row r="145" spans="1:5" ht="19" customHeight="1">
+      <c r="A145" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="9"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" ht="19" customHeight="1">
-      <c r="A146" s="2"/>
-      <c r="B146" t="s" s="3">
-        <v>193</v>
-      </c>
-      <c r="C146" t="s" s="3">
-        <v>85</v>
+    <row r="146" spans="1:5" ht="22" customHeight="1">
+      <c r="A146" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" ht="19" customHeight="1">
-      <c r="A147" s="2"/>
-      <c r="B147" t="s" s="3">
-        <v>194</v>
-      </c>
-      <c r="C147" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="D147" s="2"/>
+    <row r="147" spans="1:5" ht="19" customHeight="1">
+      <c r="A147" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="9"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" ht="19" customHeight="1">
-      <c r="A148" s="2"/>
-      <c r="B148" t="s" s="3">
-        <v>195</v>
-      </c>
-      <c r="C148" t="s" s="3">
-        <v>146</v>
+    <row r="148" spans="1:5" ht="22" customHeight="1">
+      <c r="A148" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" ht="19" customHeight="1">
-      <c r="A149" s="2"/>
-      <c r="B149" t="s" s="3">
-        <v>196</v>
-      </c>
-      <c r="C149" t="s" s="3">
-        <v>146</v>
+    <row r="149" spans="1:5" ht="19" customHeight="1">
+      <c r="A149" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" ht="19" customHeight="1">
-      <c r="A150" t="s" s="3">
-        <v>197</v>
-      </c>
-      <c r="B150" t="s" s="3">
-        <v>198</v>
-      </c>
-      <c r="C150" t="s" s="3">
-        <v>199</v>
-      </c>
-      <c r="D150" t="s" s="3">
-        <v>11</v>
-      </c>
+    <row r="150" spans="1:5" ht="19" customHeight="1">
+      <c r="A150" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="2"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" ht="19" customHeight="1">
-      <c r="A151" s="2"/>
-      <c r="B151" t="s" s="3">
-        <v>200</v>
-      </c>
-      <c r="C151" t="s" s="3">
-        <v>21</v>
+    <row r="151" spans="1:5" ht="19" customHeight="1">
+      <c r="A151" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" ht="19" customHeight="1">
-      <c r="A152" s="2"/>
-      <c r="B152" t="s" s="3">
-        <v>201</v>
-      </c>
-      <c r="C152" t="s" s="3">
-        <v>99</v>
+    <row r="152" spans="1:5" ht="19" customHeight="1">
+      <c r="A152" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" ht="19" customHeight="1">
-      <c r="A153" s="2"/>
-      <c r="B153" t="s" s="3">
-        <v>202</v>
-      </c>
-      <c r="C153" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="D153" s="2"/>
+    <row r="153" spans="1:5" ht="19" customHeight="1">
+      <c r="A153" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" ht="19" customHeight="1">
-      <c r="A154" s="2"/>
-      <c r="B154" t="s" s="3">
-        <v>203</v>
-      </c>
-      <c r="C154" t="s" s="3">
-        <v>204</v>
+    <row r="154" spans="1:5" ht="19" customHeight="1">
+      <c r="A154" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" ht="19" customHeight="1">
-      <c r="A155" s="2"/>
-      <c r="B155" t="s" s="3">
-        <v>205</v>
-      </c>
-      <c r="C155" t="s" s="3">
-        <v>35</v>
+    <row r="155" spans="1:5" ht="19" customHeight="1">
+      <c r="A155" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" ht="19" customHeight="1">
-      <c r="A156" s="2"/>
-      <c r="B156" t="s" s="3">
-        <v>206</v>
-      </c>
-      <c r="C156" t="s" s="3">
-        <v>35</v>
+    <row r="156" spans="1:5" ht="19" customHeight="1">
+      <c r="A156" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" ht="19" customHeight="1">
-      <c r="A157" s="2"/>
-      <c r="B157" t="s" s="3">
-        <v>207</v>
-      </c>
-      <c r="C157" t="s" s="3">
-        <v>146</v>
+    <row r="157" spans="1:5" ht="19" customHeight="1">
+      <c r="A157" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" ht="19" customHeight="1">
-      <c r="A158" s="2"/>
-      <c r="B158" t="s" s="3">
-        <v>208</v>
-      </c>
-      <c r="C158" t="s" s="3">
-        <v>16</v>
+    <row r="158" spans="1:5" ht="19" customHeight="1">
+      <c r="A158" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" ht="19" customHeight="1">
-      <c r="A159" s="2"/>
-      <c r="B159" t="s" s="3">
-        <v>209</v>
-      </c>
-      <c r="C159" t="s" s="3">
-        <v>210</v>
+    <row r="159" spans="1:5" ht="19" customHeight="1">
+      <c r="A159" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" ht="19" customHeight="1">
-      <c r="A160" s="2"/>
-      <c r="B160" t="s" s="3">
-        <v>211</v>
-      </c>
-      <c r="C160" t="s" s="3">
-        <v>16</v>
+    <row r="160" spans="1:5" ht="19" customHeight="1">
+      <c r="A160" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" ht="22" customHeight="1">
-      <c r="A161" s="4"/>
-      <c r="B161" t="s" s="3">
-        <v>212</v>
-      </c>
-      <c r="C161" t="s" s="3">
+    <row r="161" spans="1:5" ht="19" customHeight="1">
+      <c r="A161" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D161" s="5"/>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" ht="19" customHeight="1">
-      <c r="A162" s="2"/>
-      <c r="B162" t="s" s="3">
-        <v>213</v>
-      </c>
-      <c r="C162" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="D162" s="2"/>
+    <row r="162" spans="1:5" ht="19" customHeight="1">
+      <c r="A162" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="9"/>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" ht="22" customHeight="1">
-      <c r="A163" s="4"/>
-      <c r="B163" t="s" s="3">
-        <v>214</v>
-      </c>
-      <c r="C163" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D163" s="5"/>
+    <row r="163" spans="1:5" ht="22" customHeight="1">
+      <c r="A163" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D163" s="2"/>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" ht="19" customHeight="1">
-      <c r="A164" s="2"/>
-      <c r="B164" t="s" s="3">
-        <v>215</v>
-      </c>
-      <c r="C164" t="s" s="3">
-        <v>5</v>
+    <row r="164" spans="1:5" ht="22" customHeight="1">
+      <c r="A164" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" ht="19" customHeight="1">
-      <c r="A165" s="2"/>
-      <c r="B165" t="s" s="3">
-        <v>216</v>
-      </c>
-      <c r="C165" t="s" s="3">
-        <v>146</v>
-      </c>
+    <row r="165" spans="1:5" ht="22" customHeight="1">
+      <c r="A165" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C165" s="3"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" ht="19" customHeight="1">
-      <c r="A166" s="2"/>
-      <c r="B166" t="s" s="3">
-        <v>217</v>
-      </c>
-      <c r="C166" t="s" s="3">
-        <v>14</v>
+    <row r="166" spans="1:5" ht="22" customHeight="1">
+      <c r="A166" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" ht="19" customHeight="1">
-      <c r="A167" s="2"/>
-      <c r="B167" t="s" s="3">
-        <v>218</v>
-      </c>
-      <c r="C167" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D167" s="2"/>
+    <row r="167" spans="1:5" ht="19" customHeight="1">
+      <c r="A167" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="9"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" ht="19" customHeight="1">
-      <c r="A168" s="2"/>
-      <c r="B168" t="s" s="3">
-        <v>219</v>
-      </c>
-      <c r="C168" t="s" s="3">
-        <v>69</v>
+    <row r="168" spans="1:5" ht="22" customHeight="1">
+      <c r="A168" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" ht="19" customHeight="1">
-      <c r="A169" s="2"/>
-      <c r="B169" t="s" s="3">
-        <v>220</v>
-      </c>
-      <c r="C169" t="s" s="3">
-        <v>146</v>
+    <row r="169" spans="1:5" ht="19" customHeight="1">
+      <c r="A169" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" ht="19" customHeight="1">
-      <c r="A170" s="2"/>
-      <c r="B170" t="s" s="3">
-        <v>221</v>
-      </c>
-      <c r="C170" t="s" s="3">
-        <v>35</v>
+    <row r="170" spans="1:5" ht="19" customHeight="1">
+      <c r="A170" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" ht="19" customHeight="1">
-      <c r="A171" s="2"/>
-      <c r="B171" t="s" s="3">
-        <v>222</v>
-      </c>
-      <c r="C171" t="s" s="3">
-        <v>35</v>
+    <row r="171" spans="1:5" ht="19" customHeight="1">
+      <c r="A171" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" ht="19" customHeight="1">
-      <c r="A172" s="2"/>
-      <c r="B172" t="s" s="3">
-        <v>223</v>
-      </c>
-      <c r="C172" t="s" s="3">
-        <v>69</v>
+    <row r="172" spans="1:5" ht="19" customHeight="1">
+      <c r="A172" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" ht="19" customHeight="1">
-      <c r="A173" s="2"/>
-      <c r="B173" t="s" s="3">
-        <v>224</v>
-      </c>
-      <c r="C173" t="s" s="3">
-        <v>69</v>
+    <row r="173" spans="1:5" ht="19" customHeight="1">
+      <c r="A173" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" ht="19" customHeight="1">
-      <c r="A174" s="2"/>
-      <c r="B174" t="s" s="3">
-        <v>225</v>
-      </c>
-      <c r="C174" t="s" s="3">
-        <v>146</v>
+    <row r="174" spans="1:5" ht="19" customHeight="1">
+      <c r="A174" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" ht="19" customHeight="1">
-      <c r="A175" s="2"/>
-      <c r="B175" t="s" s="3">
-        <v>226</v>
-      </c>
-      <c r="C175" t="s" s="3">
-        <v>227</v>
+    <row r="175" spans="1:5" ht="19" customHeight="1">
+      <c r="A175" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" ht="19" customHeight="1">
-      <c r="A176" s="2"/>
-      <c r="B176" t="s" s="3">
-        <v>228</v>
-      </c>
-      <c r="C176" t="s" s="3">
-        <v>14</v>
+    <row r="176" spans="1:5" ht="19" customHeight="1">
+      <c r="A176" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" ht="19" customHeight="1">
-      <c r="A177" s="2"/>
-      <c r="B177" t="s" s="3">
-        <v>229</v>
-      </c>
-      <c r="C177" t="s" s="3">
-        <v>14</v>
+    <row r="177" spans="1:5" ht="19" customHeight="1">
+      <c r="A177" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" ht="19" customHeight="1">
-      <c r="A178" s="2"/>
-      <c r="B178" t="s" s="3">
-        <v>230</v>
-      </c>
-      <c r="C178" t="s" s="3">
-        <v>14</v>
+    <row r="178" spans="1:5" ht="19" customHeight="1">
+      <c r="A178" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" ht="19" customHeight="1">
-      <c r="A179" s="2"/>
-      <c r="B179" t="s" s="3">
-        <v>231</v>
-      </c>
-      <c r="C179" t="s" s="3">
-        <v>99</v>
+    <row r="179" spans="1:5" ht="19" customHeight="1">
+      <c r="A179" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" ht="19" customHeight="1">
-      <c r="A180" s="2"/>
-      <c r="B180" t="s" s="3">
-        <v>232</v>
-      </c>
-      <c r="C180" t="s" s="3">
-        <v>16</v>
+    <row r="180" spans="1:5" ht="19" customHeight="1">
+      <c r="A180" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" ht="19" customHeight="1">
-      <c r="A181" s="2"/>
-      <c r="B181" t="s" s="3">
-        <v>233</v>
-      </c>
-      <c r="C181" t="s" s="3">
-        <v>28</v>
+    <row r="181" spans="1:5" ht="19" customHeight="1">
+      <c r="A181" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" ht="19" customHeight="1">
-      <c r="A182" s="2"/>
-      <c r="B182" t="s" s="3">
-        <v>234</v>
-      </c>
-      <c r="C182" t="s" s="3">
-        <v>85</v>
+    <row r="182" spans="1:5" ht="19" customHeight="1">
+      <c r="A182" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" ht="19" customHeight="1">
-      <c r="A183" s="2"/>
-      <c r="B183" t="s" s="3">
-        <v>235</v>
-      </c>
-      <c r="C183" t="s" s="3">
-        <v>236</v>
+    <row r="183" spans="1:5" ht="19" customHeight="1">
+      <c r="A183" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" ht="19" customHeight="1">
-      <c r="A184" s="2"/>
-      <c r="B184" t="s" s="3">
-        <v>237</v>
-      </c>
-      <c r="C184" t="s" s="3">
-        <v>85</v>
+    <row r="184" spans="1:5" ht="19" customHeight="1">
+      <c r="A184" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" ht="19" customHeight="1">
-      <c r="A185" s="2"/>
-      <c r="B185" t="s" s="3">
-        <v>238</v>
-      </c>
-      <c r="C185" t="s" s="3">
-        <v>69</v>
+    <row r="185" spans="1:5" ht="19" customHeight="1">
+      <c r="A185" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" ht="19" customHeight="1">
-      <c r="A186" s="2"/>
-      <c r="B186" t="s" s="3">
-        <v>239</v>
-      </c>
-      <c r="C186" t="s" s="3">
-        <v>69</v>
+    <row r="186" spans="1:5" ht="19" customHeight="1">
+      <c r="A186" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" ht="19" customHeight="1">
-      <c r="A187" s="2"/>
-      <c r="B187" t="s" s="3">
-        <v>240</v>
-      </c>
-      <c r="C187" t="s" s="3">
-        <v>14</v>
+    <row r="187" spans="1:5" ht="19" customHeight="1">
+      <c r="A187" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" ht="19" customHeight="1">
-      <c r="A188" s="2"/>
-      <c r="B188" t="s" s="3">
-        <v>241</v>
-      </c>
-      <c r="C188" t="s" s="3">
-        <v>85</v>
+    <row r="188" spans="1:5" ht="19" customHeight="1">
+      <c r="A188" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" ht="19" customHeight="1">
-      <c r="A189" s="2"/>
-      <c r="B189" t="s" s="3">
-        <v>242</v>
-      </c>
-      <c r="C189" t="s" s="3">
-        <v>14</v>
+    <row r="189" spans="1:5" ht="19" customHeight="1">
+      <c r="A189" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" ht="19" customHeight="1">
-      <c r="A190" s="2"/>
-      <c r="B190" t="s" s="3">
-        <v>243</v>
-      </c>
-      <c r="C190" t="s" s="3">
-        <v>244</v>
+    <row r="190" spans="1:5" ht="19" customHeight="1">
+      <c r="A190" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
     </row>
-    <row r="191" ht="19" customHeight="1">
-      <c r="A191" s="2"/>
-      <c r="B191" t="s" s="3">
-        <v>245</v>
-      </c>
-      <c r="C191" t="s" s="3">
-        <v>146</v>
+    <row r="191" spans="1:5" ht="19" customHeight="1">
+      <c r="A191" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" ht="19" customHeight="1">
-      <c r="A192" s="2"/>
-      <c r="B192" t="s" s="3">
-        <v>246</v>
-      </c>
-      <c r="C192" t="s" s="3">
-        <v>236</v>
+    <row r="192" spans="1:5" ht="19" customHeight="1">
+      <c r="A192" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
     </row>
-    <row r="193" ht="19" customHeight="1">
-      <c r="A193" s="2"/>
-      <c r="B193" t="s" s="3">
-        <v>247</v>
-      </c>
-      <c r="C193" t="s" s="3">
-        <v>248</v>
+    <row r="193" spans="1:5" ht="19" customHeight="1">
+      <c r="A193" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" ht="19" customHeight="1">
-      <c r="A194" s="2"/>
-      <c r="B194" t="s" s="3">
-        <v>249</v>
-      </c>
-      <c r="C194" t="s" s="3">
-        <v>227</v>
+    <row r="194" spans="1:5" ht="19" customHeight="1">
+      <c r="A194" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" ht="19" customHeight="1">
-      <c r="A195" s="2"/>
-      <c r="B195" t="s" s="3">
-        <v>250</v>
-      </c>
-      <c r="C195" t="s" s="3">
-        <v>14</v>
+    <row r="195" spans="1:5" ht="19" customHeight="1">
+      <c r="A195" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" ht="19" customHeight="1">
-      <c r="A196" s="2"/>
-      <c r="B196" t="s" s="3">
-        <v>251</v>
-      </c>
-      <c r="C196" t="s" s="3">
-        <v>14</v>
+    <row r="196" spans="1:5" ht="19" customHeight="1">
+      <c r="A196" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" ht="19" customHeight="1">
-      <c r="A197" s="2"/>
-      <c r="B197" t="s" s="3">
-        <v>252</v>
-      </c>
-      <c r="C197" t="s" s="3">
-        <v>69</v>
+    <row r="197" spans="1:5" ht="19" customHeight="1">
+      <c r="A197" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" ht="19" customHeight="1">
-      <c r="A198" s="2"/>
-      <c r="B198" t="s" s="3">
-        <v>253</v>
-      </c>
-      <c r="C198" t="s" s="3">
-        <v>146</v>
+    <row r="198" spans="1:5" ht="19" customHeight="1">
+      <c r="A198" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" ht="19" customHeight="1">
-      <c r="A199" s="2"/>
-      <c r="B199" t="s" s="3">
-        <v>254</v>
-      </c>
-      <c r="C199" t="s" s="3">
-        <v>21</v>
+    <row r="199" spans="1:5" ht="19" customHeight="1">
+      <c r="A199" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" ht="19" customHeight="1">
-      <c r="A200" s="2"/>
-      <c r="B200" t="s" s="3">
-        <v>255</v>
-      </c>
-      <c r="C200" t="s" s="3">
-        <v>14</v>
+    <row r="200" spans="1:5" ht="19" customHeight="1">
+      <c r="A200" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" ht="19" customHeight="1">
-      <c r="A201" s="2"/>
-      <c r="B201" t="s" s="3">
-        <v>256</v>
-      </c>
-      <c r="C201" t="s" s="3">
-        <v>85</v>
+    <row r="201" spans="1:5" ht="19" customHeight="1">
+      <c r="A201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" ht="19" customHeight="1">
-      <c r="A202" s="2"/>
-      <c r="B202" t="s" s="3">
-        <v>257</v>
-      </c>
-      <c r="C202" t="s" s="3">
-        <v>53</v>
+    <row r="202" spans="1:5" ht="19" customHeight="1">
+      <c r="A202" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" ht="19" customHeight="1">
-      <c r="A203" s="2"/>
-      <c r="B203" t="s" s="3">
-        <v>258</v>
-      </c>
-      <c r="C203" t="s" s="3">
-        <v>1</v>
+    <row r="203" spans="1:5" ht="19" customHeight="1">
+      <c r="A203" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" ht="19" customHeight="1">
-      <c r="A204" s="2"/>
-      <c r="B204" t="s" s="3">
-        <v>259</v>
-      </c>
-      <c r="C204" t="s" s="3">
-        <v>169</v>
+    <row r="204" spans="1:5" ht="19" customHeight="1">
+      <c r="A204" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" ht="19" customHeight="1">
-      <c r="A205" s="2"/>
-      <c r="B205" t="s" s="3">
-        <v>260</v>
-      </c>
-      <c r="C205" t="s" s="3">
-        <v>18</v>
+    <row r="205" spans="1:5" ht="19" customHeight="1">
+      <c r="A205" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" ht="19" customHeight="1">
-      <c r="A206" s="2"/>
-      <c r="B206" t="s" s="3">
-        <v>261</v>
-      </c>
-      <c r="C206" t="s" s="3">
-        <v>53</v>
+    <row r="206" spans="1:5" ht="19" customHeight="1">
+      <c r="A206" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" ht="22" customHeight="1">
-      <c r="A207" s="4"/>
-      <c r="B207" t="s" s="3">
-        <v>262</v>
-      </c>
-      <c r="C207" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D207" s="5"/>
+    <row r="207" spans="1:5" ht="19" customHeight="1">
+      <c r="A207" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="9"/>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" ht="19" customHeight="1">
-      <c r="A208" s="2"/>
-      <c r="B208" t="s" s="3">
-        <v>263</v>
-      </c>
-      <c r="C208" t="s" s="3">
-        <v>264</v>
+    <row r="208" spans="1:5" ht="22" customHeight="1">
+      <c r="A208" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" ht="19" customHeight="1">
-      <c r="A209" s="2"/>
-      <c r="B209" t="s" s="3">
-        <v>265</v>
-      </c>
-      <c r="C209" t="s" s="3">
-        <v>53</v>
+    <row r="209" spans="1:5" ht="19" customHeight="1">
+      <c r="A209" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" ht="19" customHeight="1">
-      <c r="A210" s="2"/>
-      <c r="B210" t="s" s="3">
-        <v>266</v>
-      </c>
-      <c r="C210" t="s" s="3">
-        <v>7</v>
+    <row r="210" spans="1:5" ht="19" customHeight="1">
+      <c r="A210" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" ht="19" customHeight="1">
-      <c r="A211" s="2"/>
-      <c r="B211" t="s" s="3">
-        <v>267</v>
-      </c>
-      <c r="C211" t="s" s="3">
-        <v>7</v>
+    <row r="211" spans="1:5" ht="19" customHeight="1">
+      <c r="A211" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" ht="19" customHeight="1">
-      <c r="A212" s="2"/>
-      <c r="B212" t="s" s="3">
-        <v>268</v>
-      </c>
-      <c r="C212" t="s" s="3">
-        <v>51</v>
+    <row r="212" spans="1:5" ht="19" customHeight="1">
+      <c r="A212" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" ht="19" customHeight="1">
-      <c r="A213" s="2"/>
-      <c r="B213" t="s" s="3">
-        <v>269</v>
-      </c>
-      <c r="C213" t="s" s="3">
-        <v>51</v>
+    <row r="213" spans="1:5" ht="19" customHeight="1">
+      <c r="A213" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" ht="19" customHeight="1">
-      <c r="A214" s="2"/>
-      <c r="B214" t="s" s="3">
-        <v>270</v>
-      </c>
-      <c r="C214" t="s" s="3">
-        <v>51</v>
+    <row r="214" spans="1:5" ht="19" customHeight="1">
+      <c r="A214" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" ht="19" customHeight="1">
-      <c r="A215" s="2"/>
-      <c r="B215" t="s" s="3">
-        <v>271</v>
-      </c>
-      <c r="C215" t="s" s="3">
-        <v>82</v>
+    <row r="215" spans="1:5" ht="19" customHeight="1">
+      <c r="A215" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" ht="19" customHeight="1">
-      <c r="A216" t="s" s="3">
-        <v>272</v>
-      </c>
-      <c r="B216" t="s" s="3">
-        <v>273</v>
-      </c>
-      <c r="C216" s="2"/>
-      <c r="D216" t="s" s="3">
-        <v>24</v>
-      </c>
+    <row r="216" spans="1:5" ht="19" customHeight="1">
+      <c r="A216" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D216" s="2"/>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" ht="19" customHeight="1">
-      <c r="A217" s="2"/>
-      <c r="B217" t="s" s="3">
-        <v>274</v>
+    <row r="217" spans="1:5" ht="19" customHeight="1">
+      <c r="A217" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="C217" s="2"/>
-      <c r="D217" t="s" s="3">
-        <v>24</v>
+      <c r="D217" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" ht="19" customHeight="1">
-      <c r="A218" s="2"/>
-      <c r="B218" t="s" s="3">
-        <v>275</v>
+    <row r="218" spans="1:5" ht="19" customHeight="1">
+      <c r="A218" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="C218" s="2"/>
-      <c r="D218" t="s" s="3">
-        <v>24</v>
+      <c r="D218" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" ht="19" customHeight="1">
-      <c r="A219" s="2"/>
-      <c r="B219" t="s" s="3">
-        <v>276</v>
+    <row r="219" spans="1:5" ht="19" customHeight="1">
+      <c r="A219" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="C219" s="2"/>
-      <c r="D219" t="s" s="3">
-        <v>24</v>
+      <c r="D219" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" ht="19" customHeight="1">
-      <c r="A220" s="2"/>
-      <c r="B220" t="s" s="3">
-        <v>277</v>
+    <row r="220" spans="1:5" ht="19" customHeight="1">
+      <c r="A220" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="C220" s="2"/>
-      <c r="D220" t="s" s="3">
-        <v>24</v>
+      <c r="D220" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E220" s="2"/>
     </row>
-    <row r="221" ht="19" customHeight="1">
-      <c r="A221" s="2"/>
-      <c r="B221" t="s" s="3">
-        <v>278</v>
+    <row r="221" spans="1:5" ht="19" customHeight="1">
+      <c r="A221" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="C221" s="2"/>
-      <c r="D221" t="s" s="3">
-        <v>24</v>
+      <c r="D221" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E221" s="2"/>
     </row>
-    <row r="222" ht="19" customHeight="1">
-      <c r="A222" s="2"/>
-      <c r="B222" t="s" s="3">
-        <v>279</v>
+    <row r="222" spans="1:5" ht="19" customHeight="1">
+      <c r="A222" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C222" s="2"/>
-      <c r="D222" t="s" s="3">
-        <v>24</v>
+      <c r="D222" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E222" s="2"/>
     </row>
-    <row r="223" ht="19" customHeight="1">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
+    <row r="223" spans="1:5" ht="19" customHeight="1">
+      <c r="A223" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>240</v>
+      </c>
       <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
+      <c r="D223" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E223" s="2"/>
     </row>
-    <row r="224" ht="19" customHeight="1">
+    <row r="224" spans="1:5" ht="19" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
     </row>
-    <row r="225" ht="19" customHeight="1">
+    <row r="225" spans="1:5" ht="19" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
     </row>
-    <row r="226" ht="19" customHeight="1">
+    <row r="226" spans="1:5" ht="19" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
     </row>
-    <row r="227" ht="19" customHeight="1">
+    <row r="227" spans="1:5" ht="19" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
     </row>
+    <row r="228" spans="1:5" ht="19" customHeight="1">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="1:5" ht="19" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B228"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="2"/>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="2"/>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="2"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="2"/>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B228"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="2"/>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="2"/>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="2"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="2"/>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/test_data_record.xlsx
+++ b/test_data_record.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="10300" windowHeight="14060" activeTab="2"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="12440" windowHeight="14060"/>
   </bookViews>
   <sheets>
     <sheet name="Data list" sheetId="1" r:id="rId1"/>
-    <sheet name="Emily Annotations" sheetId="2" r:id="rId2"/>
-    <sheet name="Julia Annotations" sheetId="3" r:id="rId3"/>
-    <sheet name="kappa score" sheetId="5" r:id="rId4"/>
+    <sheet name="Annotations" sheetId="3" r:id="rId2"/>
+    <sheet name="kappa score" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="490">
   <si>
     <t>Robert Louis Stevenson</t>
   </si>
@@ -762,9 +761,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>adventuresOfSantaClaus.txt</t>
   </si>
   <si>
@@ -1494,7 +1490,7 @@
     <t>Julia</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Weighted Kappa:</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1660,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1824,8 +1820,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1849,9 +1851,6 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1870,17 +1869,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1907,6 +1912,7 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1933,6 +1939,7 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3252,7 +3259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV229"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D219" sqref="D219"/>
     </sheetView>
@@ -3280,7 +3287,7 @@
         <v>245</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -3551,7 +3558,7 @@
     </row>
     <row r="3" spans="1:256" ht="19" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -3566,7 +3573,7 @@
     </row>
     <row r="4" spans="1:256" ht="19" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -3596,7 +3603,7 @@
     </row>
     <row r="6" spans="1:256" ht="19" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -3611,7 +3618,7 @@
     </row>
     <row r="7" spans="1:256" ht="22" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -3626,10 +3633,10 @@
     </row>
     <row r="8" spans="1:256" ht="19" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
@@ -3641,7 +3648,7 @@
     </row>
     <row r="9" spans="1:256" ht="19" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -3656,7 +3663,7 @@
     </row>
     <row r="10" spans="1:256" ht="22" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -3671,10 +3678,10 @@
     </row>
     <row r="11" spans="1:256" ht="19" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
@@ -3699,7 +3706,7 @@
     </row>
     <row r="13" spans="1:256" ht="22" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
@@ -3714,7 +3721,7 @@
     </row>
     <row r="14" spans="1:256" ht="22" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>23</v>
@@ -3729,7 +3736,7 @@
     </row>
     <row r="15" spans="1:256" ht="19" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>24</v>
@@ -3744,7 +3751,7 @@
     </row>
     <row r="16" spans="1:256" ht="19" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
@@ -3759,7 +3766,7 @@
     </row>
     <row r="17" spans="1:5" ht="19" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
@@ -3774,7 +3781,7 @@
     </row>
     <row r="18" spans="1:5" ht="19" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>28</v>
@@ -3802,7 +3809,7 @@
     </row>
     <row r="20" spans="1:5" ht="19" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>31</v>
@@ -3832,7 +3839,7 @@
     </row>
     <row r="22" spans="1:5" ht="19" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>35</v>
@@ -3860,7 +3867,7 @@
     </row>
     <row r="24" spans="1:5" ht="19" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>38</v>
@@ -3875,7 +3882,7 @@
     </row>
     <row r="25" spans="1:5" ht="19" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>39</v>
@@ -3903,10 +3910,10 @@
     </row>
     <row r="27" spans="1:5" ht="19" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
@@ -3918,7 +3925,7 @@
     </row>
     <row r="28" spans="1:5" ht="19" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>43</v>
@@ -3933,7 +3940,7 @@
     </row>
     <row r="29" spans="1:5" ht="19" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>44</v>
@@ -3948,7 +3955,7 @@
     </row>
     <row r="30" spans="1:5" ht="19" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>46</v>
@@ -3963,7 +3970,7 @@
     </row>
     <row r="31" spans="1:5" ht="19" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>47</v>
@@ -3978,7 +3985,7 @@
     </row>
     <row r="32" spans="1:5" ht="19" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>49</v>
@@ -4032,7 +4039,7 @@
     </row>
     <row r="36" spans="1:5" ht="22" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>57</v>
@@ -4075,7 +4082,7 @@
     </row>
     <row r="39" spans="1:5" ht="19" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>62</v>
@@ -4103,7 +4110,7 @@
     </row>
     <row r="41" spans="1:5" ht="19" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>65</v>
@@ -4118,7 +4125,7 @@
     </row>
     <row r="42" spans="1:5" ht="19" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>67</v>
@@ -4133,7 +4140,7 @@
     </row>
     <row r="43" spans="1:5" ht="19" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>69</v>
@@ -4148,7 +4155,7 @@
     </row>
     <row r="44" spans="1:5" ht="19" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>70</v>
@@ -4163,7 +4170,7 @@
     </row>
     <row r="45" spans="1:5" ht="19" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>71</v>
@@ -4178,10 +4185,10 @@
     </row>
     <row r="46" spans="1:5" ht="19" customHeight="1">
       <c r="A46" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>68</v>
@@ -4221,7 +4228,7 @@
     </row>
     <row r="49" spans="1:5" ht="22" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>76</v>
@@ -4236,7 +4243,7 @@
     </row>
     <row r="50" spans="1:5" ht="19" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>77</v>
@@ -4251,7 +4258,7 @@
     </row>
     <row r="51" spans="1:5" ht="19" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>78</v>
@@ -4266,7 +4273,7 @@
     </row>
     <row r="52" spans="1:5" ht="19" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>80</v>
@@ -4281,7 +4288,7 @@
     </row>
     <row r="53" spans="1:5" ht="19" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>81</v>
@@ -4337,7 +4344,7 @@
     </row>
     <row r="57" spans="1:5" ht="19" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>89</v>
@@ -4352,7 +4359,7 @@
     </row>
     <row r="58" spans="1:5" ht="19" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>90</v>
@@ -4380,7 +4387,7 @@
     </row>
     <row r="60" spans="1:5" ht="19" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>93</v>
@@ -4395,7 +4402,7 @@
     </row>
     <row r="61" spans="1:5" ht="19" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>94</v>
@@ -4423,7 +4430,7 @@
     </row>
     <row r="63" spans="1:5" ht="19" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>98</v>
@@ -4438,7 +4445,7 @@
     </row>
     <row r="64" spans="1:5" ht="19" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>99</v>
@@ -4453,7 +4460,7 @@
     </row>
     <row r="65" spans="1:5" ht="19" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>100</v>
@@ -4468,7 +4475,7 @@
     </row>
     <row r="66" spans="1:5" ht="19" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>101</v>
@@ -4483,7 +4490,7 @@
     </row>
     <row r="67" spans="1:5" ht="19" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>102</v>
@@ -4498,10 +4505,10 @@
     </row>
     <row r="68" spans="1:5" ht="19" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>14</v>
@@ -4513,7 +4520,7 @@
     </row>
     <row r="69" spans="1:5" ht="19" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>103</v>
@@ -4528,7 +4535,7 @@
     </row>
     <row r="70" spans="1:5" ht="19" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>104</v>
@@ -4543,10 +4550,10 @@
     </row>
     <row r="71" spans="1:5" ht="19" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>14</v>
@@ -4558,10 +4565,10 @@
     </row>
     <row r="72" spans="1:5" ht="19" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>13</v>
@@ -4573,7 +4580,7 @@
     </row>
     <row r="73" spans="1:5" ht="19" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>105</v>
@@ -4601,7 +4608,7 @@
     </row>
     <row r="75" spans="1:5" ht="19" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>108</v>
@@ -4616,7 +4623,7 @@
     </row>
     <row r="76" spans="1:5" ht="19" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>109</v>
@@ -4631,7 +4638,7 @@
     </row>
     <row r="77" spans="1:5" ht="22" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>110</v>
@@ -4646,7 +4653,7 @@
     </row>
     <row r="78" spans="1:5" ht="19" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>111</v>
@@ -4661,7 +4668,7 @@
     </row>
     <row r="79" spans="1:5" ht="19" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>112</v>
@@ -4676,7 +4683,7 @@
     </row>
     <row r="80" spans="1:5" ht="19" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>113</v>
@@ -4691,7 +4698,7 @@
     </row>
     <row r="81" spans="1:5" ht="19" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>114</v>
@@ -4706,7 +4713,7 @@
     </row>
     <row r="82" spans="1:5" ht="19" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>115</v>
@@ -4721,10 +4728,10 @@
     </row>
     <row r="83" spans="1:5" ht="19" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>79</v>
@@ -4736,10 +4743,10 @@
     </row>
     <row r="84" spans="1:5" ht="19" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>79</v>
@@ -4751,10 +4758,10 @@
     </row>
     <row r="85" spans="1:5" ht="19" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>79</v>
@@ -4766,7 +4773,7 @@
     </row>
     <row r="86" spans="1:5" ht="19" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>116</v>
@@ -4781,10 +4788,10 @@
     </row>
     <row r="87" spans="1:5" ht="19" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>79</v>
@@ -4796,10 +4803,10 @@
     </row>
     <row r="88" spans="1:5" ht="19" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>14</v>
@@ -4811,10 +4818,10 @@
     </row>
     <row r="89" spans="1:5" ht="19" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="2" t="s">
@@ -4824,7 +4831,7 @@
     </row>
     <row r="90" spans="1:5" ht="19" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>117</v>
@@ -4839,7 +4846,7 @@
     </row>
     <row r="91" spans="1:5" ht="19" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>118</v>
@@ -4854,7 +4861,7 @@
     </row>
     <row r="92" spans="1:5" ht="19" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>119</v>
@@ -4869,10 +4876,10 @@
     </row>
     <row r="93" spans="1:5" ht="19" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>79</v>
@@ -4884,10 +4891,10 @@
     </row>
     <row r="94" spans="1:5" ht="19" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>79</v>
@@ -4899,7 +4906,7 @@
     </row>
     <row r="95" spans="1:5" ht="19" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>120</v>
@@ -4914,10 +4921,10 @@
     </row>
     <row r="96" spans="1:5" ht="22" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>13</v>
@@ -4929,7 +4936,7 @@
     </row>
     <row r="97" spans="1:5" ht="19" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>121</v>
@@ -4944,7 +4951,7 @@
     </row>
     <row r="98" spans="1:5" ht="19" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>122</v>
@@ -4959,7 +4966,7 @@
     </row>
     <row r="99" spans="1:5" ht="19" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>123</v>
@@ -4974,7 +4981,7 @@
     </row>
     <row r="100" spans="1:5" ht="19" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>124</v>
@@ -4989,7 +4996,7 @@
     </row>
     <row r="101" spans="1:5" ht="19" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>125</v>
@@ -5004,7 +5011,7 @@
     </row>
     <row r="102" spans="1:5" ht="22" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>127</v>
@@ -5019,7 +5026,7 @@
     </row>
     <row r="103" spans="1:5" ht="19" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>129</v>
@@ -5034,7 +5041,7 @@
     </row>
     <row r="104" spans="1:5" ht="19" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>130</v>
@@ -5049,7 +5056,7 @@
     </row>
     <row r="105" spans="1:5" ht="19" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>131</v>
@@ -5077,10 +5084,10 @@
     </row>
     <row r="107" spans="1:5" ht="19" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>14</v>
@@ -5092,7 +5099,7 @@
     </row>
     <row r="108" spans="1:5" ht="19" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>135</v>
@@ -5107,7 +5114,7 @@
     </row>
     <row r="109" spans="1:5" ht="19" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>136</v>
@@ -5122,7 +5129,7 @@
     </row>
     <row r="110" spans="1:5" ht="19" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>137</v>
@@ -5137,7 +5144,7 @@
     </row>
     <row r="111" spans="1:5" ht="19" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>138</v>
@@ -5152,7 +5159,7 @@
     </row>
     <row r="112" spans="1:5" ht="19" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>139</v>
@@ -5167,7 +5174,7 @@
     </row>
     <row r="113" spans="1:5" ht="19" customHeight="1">
       <c r="A113" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>140</v>
@@ -5182,7 +5189,7 @@
     </row>
     <row r="114" spans="1:5" ht="22" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>141</v>
@@ -5197,7 +5204,7 @@
     </row>
     <row r="115" spans="1:5" ht="19" customHeight="1">
       <c r="A115" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>142</v>
@@ -5212,7 +5219,7 @@
     </row>
     <row r="116" spans="1:5" ht="22" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>143</v>
@@ -5227,7 +5234,7 @@
     </row>
     <row r="117" spans="1:5" ht="19" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>144</v>
@@ -5255,7 +5262,7 @@
     </row>
     <row r="119" spans="1:5" ht="19" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>147</v>
@@ -5270,7 +5277,7 @@
     </row>
     <row r="120" spans="1:5" ht="19" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>148</v>
@@ -5285,7 +5292,7 @@
     </row>
     <row r="121" spans="1:5" ht="19" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>150</v>
@@ -5300,7 +5307,7 @@
     </row>
     <row r="122" spans="1:5" ht="19" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>151</v>
@@ -5315,7 +5322,7 @@
     </row>
     <row r="123" spans="1:5" ht="19" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>152</v>
@@ -5330,7 +5337,7 @@
     </row>
     <row r="124" spans="1:5" ht="19" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>153</v>
@@ -5345,7 +5352,7 @@
     </row>
     <row r="125" spans="1:5" ht="19" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>154</v>
@@ -5360,7 +5367,7 @@
     </row>
     <row r="126" spans="1:5" ht="19" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>155</v>
@@ -5375,7 +5382,7 @@
     </row>
     <row r="127" spans="1:5" ht="19" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>156</v>
@@ -5390,7 +5397,7 @@
     </row>
     <row r="128" spans="1:5" ht="19" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>157</v>
@@ -5405,10 +5412,10 @@
     </row>
     <row r="129" spans="1:5" ht="19" customHeight="1">
       <c r="A129" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>79</v>
@@ -5420,10 +5427,10 @@
     </row>
     <row r="130" spans="1:5" ht="19" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>79</v>
@@ -5435,10 +5442,10 @@
     </row>
     <row r="131" spans="1:5" ht="19" customHeight="1">
       <c r="A131" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>79</v>
@@ -5450,10 +5457,10 @@
     </row>
     <row r="132" spans="1:5" ht="19" customHeight="1">
       <c r="A132" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>79</v>
@@ -5465,10 +5472,10 @@
     </row>
     <row r="133" spans="1:5" ht="19" customHeight="1">
       <c r="A133" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>79</v>
@@ -5480,7 +5487,7 @@
     </row>
     <row r="134" spans="1:5" ht="19" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>158</v>
@@ -5495,7 +5502,7 @@
     </row>
     <row r="135" spans="1:5" ht="19" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>159</v>
@@ -5510,7 +5517,7 @@
     </row>
     <row r="136" spans="1:5" ht="19" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>160</v>
@@ -5525,7 +5532,7 @@
     </row>
     <row r="137" spans="1:5" ht="19" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>161</v>
@@ -5540,7 +5547,7 @@
     </row>
     <row r="138" spans="1:5" ht="19" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>162</v>
@@ -5555,7 +5562,7 @@
     </row>
     <row r="139" spans="1:5" ht="19" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>163</v>
@@ -5570,7 +5577,7 @@
     </row>
     <row r="140" spans="1:5" ht="19" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>164</v>
@@ -5585,7 +5592,7 @@
     </row>
     <row r="141" spans="1:5" ht="19" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>165</v>
@@ -5600,7 +5607,7 @@
     </row>
     <row r="142" spans="1:5" ht="19" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>166</v>
@@ -5615,10 +5622,10 @@
     </row>
     <row r="143" spans="1:5" ht="19" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>14</v>
@@ -5630,7 +5637,7 @@
     </row>
     <row r="144" spans="1:5" ht="19" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>167</v>
@@ -5645,7 +5652,7 @@
     </row>
     <row r="145" spans="1:5" ht="19" customHeight="1">
       <c r="A145" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>168</v>
@@ -5660,7 +5667,7 @@
     </row>
     <row r="146" spans="1:5" ht="22" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>169</v>
@@ -5675,7 +5682,7 @@
     </row>
     <row r="147" spans="1:5" ht="19" customHeight="1">
       <c r="A147" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>170</v>
@@ -5690,7 +5697,7 @@
     </row>
     <row r="148" spans="1:5" ht="22" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>171</v>
@@ -5705,13 +5712,13 @@
     </row>
     <row r="149" spans="1:5" ht="19" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>10</v>
@@ -5720,7 +5727,7 @@
     </row>
     <row r="150" spans="1:5" ht="19" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>172</v>
@@ -5735,7 +5742,7 @@
     </row>
     <row r="151" spans="1:5" ht="19" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>173</v>
@@ -5750,7 +5757,7 @@
     </row>
     <row r="152" spans="1:5" ht="19" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>174</v>
@@ -5765,7 +5772,7 @@
     </row>
     <row r="153" spans="1:5" ht="19" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>175</v>
@@ -5780,7 +5787,7 @@
     </row>
     <row r="154" spans="1:5" ht="19" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>177</v>
@@ -5795,10 +5802,10 @@
     </row>
     <row r="155" spans="1:5" ht="19" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>14</v>
@@ -5810,7 +5817,7 @@
     </row>
     <row r="156" spans="1:5" ht="19" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>178</v>
@@ -5825,7 +5832,7 @@
     </row>
     <row r="157" spans="1:5" ht="19" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>180</v>
@@ -5840,7 +5847,7 @@
     </row>
     <row r="158" spans="1:5" ht="19" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>181</v>
@@ -5855,10 +5862,10 @@
     </row>
     <row r="159" spans="1:5" ht="19" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>14</v>
@@ -5870,10 +5877,10 @@
     </row>
     <row r="160" spans="1:5" ht="19" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>14</v>
@@ -5885,10 +5892,10 @@
     </row>
     <row r="161" spans="1:5" ht="19" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>13</v>
@@ -5900,7 +5907,7 @@
     </row>
     <row r="162" spans="1:5" ht="19" customHeight="1">
       <c r="A162" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>182</v>
@@ -5915,7 +5922,7 @@
     </row>
     <row r="163" spans="1:5" ht="22" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>183</v>
@@ -5930,10 +5937,10 @@
     </row>
     <row r="164" spans="1:5" ht="22" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>13</v>
@@ -5945,10 +5952,10 @@
     </row>
     <row r="165" spans="1:5" ht="22" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="2" t="s">
@@ -5958,10 +5965,10 @@
     </row>
     <row r="166" spans="1:5" ht="22" customHeight="1">
       <c r="A166" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>13</v>
@@ -5973,7 +5980,7 @@
     </row>
     <row r="167" spans="1:5" ht="19" customHeight="1">
       <c r="A167" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>184</v>
@@ -5988,7 +5995,7 @@
     </row>
     <row r="168" spans="1:5" ht="22" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>185</v>
@@ -6003,7 +6010,7 @@
     </row>
     <row r="169" spans="1:5" ht="19" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>186</v>
@@ -6018,7 +6025,7 @@
     </row>
     <row r="170" spans="1:5" ht="19" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>187</v>
@@ -6033,7 +6040,7 @@
     </row>
     <row r="171" spans="1:5" ht="19" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>188</v>
@@ -6048,7 +6055,7 @@
     </row>
     <row r="172" spans="1:5" ht="19" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>189</v>
@@ -6063,7 +6070,7 @@
     </row>
     <row r="173" spans="1:5" ht="19" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>190</v>
@@ -6078,7 +6085,7 @@
     </row>
     <row r="174" spans="1:5" ht="19" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>191</v>
@@ -6093,7 +6100,7 @@
     </row>
     <row r="175" spans="1:5" ht="19" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>192</v>
@@ -6108,7 +6115,7 @@
     </row>
     <row r="176" spans="1:5" ht="19" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>193</v>
@@ -6123,7 +6130,7 @@
     </row>
     <row r="177" spans="1:5" ht="19" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>194</v>
@@ -6138,7 +6145,7 @@
     </row>
     <row r="178" spans="1:5" ht="19" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>196</v>
@@ -6153,7 +6160,7 @@
     </row>
     <row r="179" spans="1:5" ht="19" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>197</v>
@@ -6168,7 +6175,7 @@
     </row>
     <row r="180" spans="1:5" ht="19" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>198</v>
@@ -6183,7 +6190,7 @@
     </row>
     <row r="181" spans="1:5" ht="19" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>199</v>
@@ -6198,10 +6205,10 @@
     </row>
     <row r="182" spans="1:5" ht="19" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>14</v>
@@ -6213,7 +6220,7 @@
     </row>
     <row r="183" spans="1:5" ht="19" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>200</v>
@@ -6228,7 +6235,7 @@
     </row>
     <row r="184" spans="1:5" ht="19" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>201</v>
@@ -6243,7 +6250,7 @@
     </row>
     <row r="185" spans="1:5" ht="19" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>203</v>
@@ -6258,7 +6265,7 @@
     </row>
     <row r="186" spans="1:5" ht="19" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>204</v>
@@ -6273,7 +6280,7 @@
     </row>
     <row r="187" spans="1:5" ht="19" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>205</v>
@@ -6288,7 +6295,7 @@
     </row>
     <row r="188" spans="1:5" ht="19" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>206</v>
@@ -6303,7 +6310,7 @@
     </row>
     <row r="189" spans="1:5" ht="19" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>207</v>
@@ -6318,7 +6325,7 @@
     </row>
     <row r="190" spans="1:5" ht="19" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>208</v>
@@ -6333,7 +6340,7 @@
     </row>
     <row r="191" spans="1:5" ht="19" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>210</v>
@@ -6348,7 +6355,7 @@
     </row>
     <row r="192" spans="1:5" ht="19" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>211</v>
@@ -6363,7 +6370,7 @@
     </row>
     <row r="193" spans="1:5" ht="19" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>212</v>
@@ -6378,7 +6385,7 @@
     </row>
     <row r="194" spans="1:5" ht="19" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>214</v>
@@ -6393,7 +6400,7 @@
     </row>
     <row r="195" spans="1:5" ht="19" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>215</v>
@@ -6408,7 +6415,7 @@
     </row>
     <row r="196" spans="1:5" ht="19" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>216</v>
@@ -6423,7 +6430,7 @@
     </row>
     <row r="197" spans="1:5" ht="19" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>217</v>
@@ -6438,7 +6445,7 @@
     </row>
     <row r="198" spans="1:5" ht="19" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>218</v>
@@ -6453,10 +6460,10 @@
     </row>
     <row r="199" spans="1:5" ht="19" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>18</v>
@@ -6468,10 +6475,10 @@
     </row>
     <row r="200" spans="1:5" ht="19" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>13</v>
@@ -6483,7 +6490,7 @@
     </row>
     <row r="201" spans="1:5" ht="19" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>219</v>
@@ -6498,7 +6505,7 @@
     </row>
     <row r="202" spans="1:5" ht="19" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>220</v>
@@ -6513,7 +6520,7 @@
     </row>
     <row r="203" spans="1:5" ht="19" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>221</v>
@@ -6528,7 +6535,7 @@
     </row>
     <row r="204" spans="1:5" ht="19" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>222</v>
@@ -6543,7 +6550,7 @@
     </row>
     <row r="205" spans="1:5" ht="19" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>223</v>
@@ -6558,7 +6565,7 @@
     </row>
     <row r="206" spans="1:5" ht="19" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>224</v>
@@ -6573,7 +6580,7 @@
     </row>
     <row r="207" spans="1:5" ht="19" customHeight="1">
       <c r="A207" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>225</v>
@@ -6588,10 +6595,10 @@
     </row>
     <row r="208" spans="1:5" ht="22" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>226</v>
@@ -6603,7 +6610,7 @@
     </row>
     <row r="209" spans="1:5" ht="19" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>227</v>
@@ -6618,7 +6625,7 @@
     </row>
     <row r="210" spans="1:5" ht="19" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>228</v>
@@ -6633,7 +6640,7 @@
     </row>
     <row r="211" spans="1:5" ht="19" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>229</v>
@@ -6648,7 +6655,7 @@
     </row>
     <row r="212" spans="1:5" ht="19" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>230</v>
@@ -6663,7 +6670,7 @@
     </row>
     <row r="213" spans="1:5" ht="19" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>231</v>
@@ -6678,7 +6685,7 @@
     </row>
     <row r="214" spans="1:5" ht="19" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>232</v>
@@ -6693,10 +6700,10 @@
     </row>
     <row r="215" spans="1:5" ht="19" customHeight="1">
       <c r="A215" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B215" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>50</v>
@@ -6708,10 +6715,10 @@
     </row>
     <row r="216" spans="1:5" ht="19" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>79</v>
@@ -6736,7 +6743,7 @@
     </row>
     <row r="218" spans="1:5" ht="19" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>235</v>
@@ -6749,7 +6756,7 @@
     </row>
     <row r="219" spans="1:5" ht="19" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>236</v>
@@ -6762,7 +6769,7 @@
     </row>
     <row r="220" spans="1:5" ht="19" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>237</v>
@@ -6775,7 +6782,7 @@
     </row>
     <row r="221" spans="1:5" ht="19" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>238</v>
@@ -6788,7 +6795,7 @@
     </row>
     <row r="222" spans="1:5" ht="19" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>239</v>
@@ -6801,7 +6808,7 @@
     </row>
     <row r="223" spans="1:5" ht="19" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>240</v>
@@ -6864,1138 +6871,2474 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B228"/>
+  <dimension ref="A1:C228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="6"/>
+    <col min="2" max="3" width="10.625" style="6"/>
+    <col min="4" max="4" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>242</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>488</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>280</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>299</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>317</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>249</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>329</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>251</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>248</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>250</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>256</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>258</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>259</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>262</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>265</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>281</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>288</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>290</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2" t="s">
+      <c r="B44" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>295</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>316</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>246</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>334</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>405</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="2" t="s">
+      <c r="B80" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="2" t="s">
+      <c r="B81" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>446</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>445</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>444</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>287</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>289</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>307</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>384</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>379</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>393</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>395</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>416</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="2" t="s">
+      <c r="B111" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="2" t="s">
+      <c r="B116" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="2" t="s">
+      <c r="B120" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="5" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="2" t="s">
+      <c r="B145" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="2" t="s">
+      <c r="B157" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="2" t="s">
+      <c r="B169" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="2" t="s">
+      <c r="B170" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B185" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="2" t="s">
+      <c r="B188" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="2" t="s">
+      <c r="B200" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="2" t="s">
+      <c r="B204" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="2" t="s">
+      <c r="B209" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="2" t="s">
+      <c r="B210" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="B211" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="2" t="s">
+      <c r="B213" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="2" t="s">
+      <c r="B214" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="B216" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="B217" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>282</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>284</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>346</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>358</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>371</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>451</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="2"/>
     </row>
     <row r="225" spans="1:1">
@@ -8023,1839 +9366,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C228"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C223" sqref="C223"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="27.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="6"/>
-    <col min="4" max="4" width="39.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C223" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="2"/>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="2"/>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="2"/>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" s="2"/>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9863,92 +9377,127 @@
     <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="3.5" customWidth="1"/>
     <col min="3" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="37" customHeight="1">
-      <c r="C2" s="18" t="s">
+    <row r="2" spans="1:8" ht="37" customHeight="1">
+      <c r="C2" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="D3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C4" s="13">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="18"/>
+      <c r="B5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>40</v>
+      </c>
+      <c r="E5" s="12">
+        <v>39</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="18"/>
+      <c r="B6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>71</v>
+      </c>
+      <c r="F6" s="12">
+        <v>24</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="18"/>
+      <c r="B7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
+        <v>23</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="18"/>
+      <c r="B8" t="s">
         <v>485</v>
       </c>
-      <c r="E3" t="s">
-        <v>483</v>
-      </c>
-      <c r="F3" t="s">
-        <v>484</v>
-      </c>
-      <c r="G3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="H11" t="s">
         <v>489</v>
       </c>
-      <c r="B4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="11"/>
-      <c r="B5" t="s">
-        <v>485</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="11"/>
-      <c r="B6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="11"/>
-      <c r="B8" t="s">
-        <v>486</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="H12">
+        <v>0.64100000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
